--- a/plasma.xlsx
+++ b/plasma.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamashinahotaka/Documents/gikadai/exp2/02-Plasma/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LATEX\gikadai\exp2\02-Plasma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EC08D-D1CA-BD45-AF0A-81CC7D65E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1412644-8688-437C-9DF2-90217C9F4E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" activeTab="1" xr2:uid="{F684A428-29BD-A448-9984-AB13724C011E}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F684A428-29BD-A448-9984-AB13724C011E}"/>
   </bookViews>
   <sheets>
     <sheet name="plasma" sheetId="1" r:id="rId1"/>
     <sheet name="discharge" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>vp</t>
     <phoneticPr fontId="1"/>
@@ -188,21 +189,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>気圧/距離</t>
+    <t>気圧[Pa]</t>
     <rPh sb="0" eb="2">
-      <t>キアテゥ</t>
+      <t>キアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電極間距離d[cm]</t>
+    <rPh sb="0" eb="2">
+      <t>デンキョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>キョリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>気圧 p[Pa]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="3">
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +281,30 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -295,7 +338,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -322,10 +365,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>plasma!$B$3:$B$40</c:f>
+              <c:f>plasma!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>-147.30000000000001</c:v>
                 </c:pt>
@@ -335,49 +378,49 @@
                 <c:pt idx="2">
                   <c:v>-100.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>-74.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>-49.7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>-40.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>-35.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>-29.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>-25.1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>-19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-15.06</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.000">
                   <c:v>-9.7799999999999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.000">
                   <c:v>-7.94</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.000">
                   <c:v>-6.91</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.000">
                   <c:v>-5.01</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.000">
                   <c:v>-2.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-1.1879999999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.000">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
@@ -386,16 +429,16 @@
                 <c:pt idx="19">
                   <c:v>15.14</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>25.2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>50.2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
@@ -404,19 +447,19 @@
                 <c:pt idx="25">
                   <c:v>124.9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.0">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>175.1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.0">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.0">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.0">
                   <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
@@ -424,102 +467,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plasma!$D$3:$D$40</c:f>
+              <c:f>plasma!$D$3:$D$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-2.12E-5</c:v>
+                  <c:v>-2.12E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9179999999999999E-5</c:v>
+                  <c:v>-1.9179999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5800000000000001E-5</c:v>
+                  <c:v>-1.5800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0849999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.8500000000000002E-6</c:v>
+                  <c:v>-1.085E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>-2.8500000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5609999999999998E-5</c:v>
+                  <c:v>1.5609999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3699999999999998E-5</c:v>
+                  <c:v>4.3699999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0000000000000006E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.706E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9700000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8699999999999988E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.47E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.7100000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4299999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.5700000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.94E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.5500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7299999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8300000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.8200000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.8900000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.9800000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.9900000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.0200000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.0299999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.0400000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.0499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.0599999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.0799999999999995E-3</c:v>
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.1706</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.8869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>2.4699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>3.7100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>6.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>6.7299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>6.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>7.0200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>7.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>7.0799999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,253 +571,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-443B-9A4D-9F3B-C4AAB05115C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>plasma!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ie(Ip&lt;0 =&gt; Ip-Ii  Ip&gt;0 =&gt; Ip+Ii)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>plasma!$B$3:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>-147.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-125.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-100.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-74.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-49.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-40.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-35.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-29.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-25.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-15.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-9.7799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.94</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6.91</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.1879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>124.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>175.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>plasma!$F$3:$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>-4.2600000000000033E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.8799999999999989E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.7999999999999975E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.1000000000000064E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.0899999999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.153E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0679999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.81E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6958000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9712E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0998800000000006E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8904399999999986E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4724119999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.712618E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4329979999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.5735840000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.9437624000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.5549600000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7360700000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8370280000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.8280400000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.8990400000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.99404E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0090000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0240600000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.0489799999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.064E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.0790200000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.0939999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.108999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.1339999999999997E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-443B-9A4D-9F3B-C4AAB05115C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -793,6 +589,8 @@
         <c:axId val="457264239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="-260"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -810,6 +608,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Prove voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" baseline="-25000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>p </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" baseline="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37255304411518836"/>
+              <c:y val="0.92098792431167253"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -832,7 +684,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -850,11 +702,14 @@
         <c:crossAx val="457265951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="130"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="457265951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -872,10 +727,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Prove Current </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" baseline="-25000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> [mA]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0179864562918435E-3"/>
+              <c:y val="0.26119043163951944"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -894,7 +803,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -912,6 +821,7 @@
         <c:crossAx val="457264239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -919,6 +829,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1260,6 +1175,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1267,7 +1183,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1403,49 +1318,49 @@
                 <c:pt idx="2">
                   <c:v>-100.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>-74.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>-49.7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>-40.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>-35.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>-29.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>-25.1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>-19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-15.06</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.000">
                   <c:v>-9.7799999999999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.000">
                   <c:v>-7.94</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.000">
                   <c:v>-6.91</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.000">
                   <c:v>-5.01</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.000">
                   <c:v>-2.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-1.1879999999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.000">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
@@ -1454,16 +1369,16 @@
                 <c:pt idx="19">
                   <c:v>15.14</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>25.2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>50.2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
@@ -1472,19 +1387,19 @@
                 <c:pt idx="25">
                   <c:v>124.9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.0">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>175.1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.0">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.0">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.0">
                   <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
@@ -1497,97 +1412,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>-4.2600000000000033E-6</c:v>
+                  <c:v>2.1174539999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.8799999999999989E-6</c:v>
+                  <c:v>1.9158939999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7999999999999975E-7</c:v>
+                  <c:v>1.578382E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1000000000000064E-7</c:v>
+                  <c:v>1.0839039999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.0899999999999996E-6</c:v>
+                  <c:v>2.8440600000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.153E-5</c:v>
+                  <c:v>1.5605919999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0679999999999997E-5</c:v>
+                  <c:v>4.3696979999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.81E-5</c:v>
+                  <c:v>8.9998100000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6958000000000001E-4</c:v>
+                  <c:v>0.17059898000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9712E-4</c:v>
+                  <c:v>0.29700011999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0998800000000006E-4</c:v>
+                  <c:v>0.50900098800000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8904399999999986E-4</c:v>
+                  <c:v>0.88700204399999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4724119999999998E-3</c:v>
+                  <c:v>2.4700024119999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.712618E-3</c:v>
+                  <c:v>3.7100026180000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4329979999999996E-3</c:v>
+                  <c:v>4.430002998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5735840000000004E-3</c:v>
+                  <c:v>5.5700035840000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9437624000000001E-3</c:v>
+                  <c:v>5.9400037624000008</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5549600000000003E-3</c:v>
+                  <c:v>6.5500049600000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7360700000000003E-3</c:v>
+                  <c:v>6.73000607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8370280000000002E-3</c:v>
+                  <c:v>6.8300070279999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.8280400000000005E-3</c:v>
+                  <c:v>6.8200080400000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8990400000000004E-3</c:v>
+                  <c:v>6.8900090400000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.99404E-3</c:v>
+                  <c:v>6.9800140400000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0090000000000005E-3</c:v>
+                  <c:v>6.9900190000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0240600000000004E-3</c:v>
+                  <c:v>7.0000240600000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0489799999999998E-3</c:v>
+                  <c:v>7.0200289800000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.064E-3</c:v>
+                  <c:v>7.0300339999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0790200000000001E-3</c:v>
+                  <c:v>7.04003902</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0939999999999996E-3</c:v>
+                  <c:v>7.0500439999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.108999999999999E-3</c:v>
+                  <c:v>7.0600489999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1339999999999997E-3</c:v>
+                  <c:v>7.0800539999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,6 +1659,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1751,7 +1667,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2093,6 +2008,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2100,7 +2016,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2149,36 +2064,713 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11753683421080931"/>
+          <c:y val="3.1231495552174835E-2"/>
+          <c:w val="0.83116021286755504"/>
+          <c:h val="0.85241021356825297"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3[cm]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>discharge!$P$6:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>discharge!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FC7-7645-8E3C-4C4EB6072BE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5[cm]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>discharge!$Q$6:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>discharge!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FC7-7645-8E3C-4C4EB6072BE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>7[cm]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>discharge!$R$6:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>discharge!$N$6:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FC7-7645-8E3C-4C4EB6072BE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="709935855"/>
+        <c:axId val="709937567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="709935855"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Discharge Voltage </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41668714180733024"/>
+              <c:y val="0.93974825081493485"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>I-V</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>特性</a:t>
-            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
-        </c:rich>
-      </c:tx>
+        </c:txPr>
+        <c:crossAx val="709937567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="709937567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>pd</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" i="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1145124255389819E-3"/>
+              <c:y val="0.43329888320773891"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709935855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10878812603965497"/>
+          <c:y val="0.13138084043664794"/>
+          <c:w val="0.20200578111753179"/>
+          <c:h val="0.15790053867213141"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2192,23 +2784,81 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2496,17 +3146,40 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>電流</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Discharge Current </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>I </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>[mA]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39492616080529558"/>
+              <c:y val="0.94586678860419693"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2532,11 +3205,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2558,7 +3231,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2618,14 +3291,648 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>電圧</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Applied Voltage  </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>V  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>[V]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7653406363761087E-3"/>
+              <c:y val="0.26149039172877914"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712472496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12729168274031361"/>
+          <c:y val="2.9512864503418064E-2"/>
+          <c:w val="0.83543143345621984"/>
+          <c:h val="0.85547146748229497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3[cm]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>discharge!$K$6:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>discharge!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-147B-4C49-BE4E-764CA8DD2DFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5[cm]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>discharge!$K$6:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>discharge!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-147B-4C49-BE4E-764CA8DD2DFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>7[cm]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>discharge!$K$6:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>discharge!$N$6:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-147B-4C49-BE4E-764CA8DD2DFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="709935855"/>
+        <c:axId val="709937567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="709935855"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Pressure</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>p </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[Pa]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" i="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2638,7 +3945,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2680,567 +3987,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="712472496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>3cm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>discharge!$K$6:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>discharge!$L$6:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3850</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-147B-4C49-BE4E-764CA8DD2DFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5cm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>discharge!$K$6:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>discharge!$M$6:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-147B-4C49-BE4E-764CA8DD2DFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>7cm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>discharge!$K$6:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>discharge!$N$6:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2550</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4650</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-147B-4C49-BE4E-764CA8DD2DFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="709935855"/>
-        <c:axId val="709937567"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="709935855"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -3271,6 +4027,86 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Discharge</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t> Voltage </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="1" baseline="0"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="-25000"/>
+                  <a:t>s </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t>  [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0490780156118443E-2"/>
+              <c:y val="0.29169484331880086"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3293,16 +4129,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -3322,6 +4158,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19459999437206288"/>
+          <c:y val="0.13359208320050431"/>
+          <c:w val="0.13270396800703024"/>
+          <c:h val="0.1594120809116614"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3335,16 +4181,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -3353,6 +4199,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3360,642 +4207,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>discharge!$P$6:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>discharge!$L$6:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3850</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FC7-7645-8E3C-4C4EB6072BE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>discharge!$Q$6:$Q$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>discharge!$M$6:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FC7-7645-8E3C-4C4EB6072BE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>discharge!$R$6:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>discharge!$N$6:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2550</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4650</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FC7-7645-8E3C-4C4EB6072BE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="709935855"/>
-        <c:axId val="709937567"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="709935855"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709937567"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="709937567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709935855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7586,7 +7797,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>924980</xdr:colOff>
+      <xdr:colOff>912280</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>176080</xdr:rowOff>
     </xdr:to>
@@ -7649,27 +7860,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204632</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>246787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>389467</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68356</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A82EE5-BC3B-F4CF-4181-0D1062FDFA7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C3921C-C541-BB40-A018-2FE83D9668FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7685,23 +7898,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>80324</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>213868</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523871</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>192222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>640935</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>237651</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>818779</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E146C09-8B01-9A46-3673-7453A2B665D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A82EE5-BC3B-F4CF-4181-0D1062FDFA7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7721,29 +7934,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>255805</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68240</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>758279</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>246365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>380226</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>92025</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>621553</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C3921C-C541-BB40-A018-2FE83D9668FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E146C09-8B01-9A46-3673-7453A2B665D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7814,40 +8025,40 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1683 5801 8027,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379">1683 5801 8027,'-1'73'0,"0"-1"0,-2-4 0,5-17 0,12-34 0,3 4 0,5 4 0,6 0 0,2 2 0,2 1 0,2 0 0,-2 3 0,-2-1 0,2 0 0,-2 0 0,2-3 0,-2 0 0,1-1 0,-3-1 0,0-2 0,0-1 0,-2 1 0,1-3 0,-1-1 0,-1-3 0,0 1 0,-1-1 0,1-3 0,0 2 0,0-4 0,0 3 0,-1-3 0,2 0 0,1-3 0,1 1 0,2 1 0,0 1 0,-1-1 0,3 0 0,-1-2 0,1 3 0,1 0 0,-3 3 0,1-3 0,-2 2 0,1-2 0,2 0 0,-5-2 0,4-1 0,-4 0 0,2 0 0,-2 1 0,0-1 0,3 0 0,1 0 0,1 1 0,2-1 0,3-3 0,5 1 0,0-4 0,5 0 0,-1-1 0,6-1 0,-9 0 0,8 0 0,-2 0 0,2 0 0,0 0 0,-4 0 0,1 0 0,-4 0 0,0-2 0,-3-1 0,-2-4 0,0 2 0,-4-2 0,0-2 0,-1 4 0,-1-1 0,0 1 0,-2-3 0,-1-1 0,-2 4 0,2-1 0,-2 1 0,2-3 0,0-3 0,3 0 0,0-4 0,0 1 0,1-1 0,-1-2 0,-3 1 0,0-1 0,0 0 0,0 1 0,1 2 0,-3 0 0,-1 3 0,-2-2 0,3 3 0,-1-1 0,1 2 0,-3 3 0,0 0 0,-1 1 0,4-1 0,-1 1 0,0-1 0,2-2 0,-2 0 0,4-1 0,0-2 0,0 2 0,-1-2 0,-1 1 0,-4 2 0,-2 0 0,-1 0 0,-1-1 0,-5 1 0,4 0 0,-1 0 0,1-2 0,-1-1 0,2-1 0,4-5 0,0 1 0,0-1 0,-3 3 0,0 1 0,1-2 0,-2 2 0,1-1 0,-4 4 0,2-1 0,-4-1 0,-2 1 0,2 0 0,-2 3 0,-3 1 0,1 1 0,-3 0 0,-1 3 0,0-3 0,-3 1 0,2 0 0,1-17 0,5-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-33751">4040 3326 8027,'-85'-46'0,"24"18"0,11 19 0,6 9 0,-2 0 0,-4 0 0,-3 1 0,-13 2 0,-5 2 0,-4 6 0,-3-1 0,-4 4 0,-1 3 0,0 2 0,1 5 0,-1 0 0,0 2 0,1 5 0,-1 0 0,5 5 0,3 2 0,3 2 0,6 2 0,4 0 0,12-4 0,-5 11 0,11-10 0,-3 6 0,11-9 0,1 4 0,2 1 0,4 3 0,4 0 0,5 9 0,6-1 0,6 3 0,5-3 0,2 0 0,1 4 0,10-6 0,6 3 0,12-6 0,10-3 0,3 1 0,5-2 0,3 1 0,5-2 0,7-1 0,3-2 0,8-1 0,1-2 0,7 2 0,0-4 0,2-1 0,7 0 0,2-6 0,6-3 0,-1-5 0,3-2 0,0-4 0,-46-5 0,1-1 0,-3-1 0,0-1 0,5-1 0,-1-1 0,38 0 0,6-2 0,1-1 0,0 0 0,-50 0 0,1-1 0,0 0 0,0-1 0,0-1 0,0-2 0,48-9 0,-1-5 0,-1-3 0,0 0 0,-3-3 0,-3 1 0,-3-6 0,-7 0 0,-1-3 0,-14 2 0,0-2 0,-15 4 0,7-4 0,-9 2 0,-2-2 0,-3 0 0,-5 0 0,-6-3 0,-6 0 0,-2 0 0,-3 0 0,-2-2 0,-7-4 0,-2-2 0,-2 2 0,-4-2 0,-1 2 0,-4 1 0,0-1 0,0 1 0,-8 1 0,-6 1 0,-5 0 0,-6 3 0,0-3 0,0 4 0,-1-4 0,-1 3 0,-3 1 0,-3 2 0,-2-1 0,-3-2 0,0 7 0,-9-1 0,2 6 0,-7-1 0,-1 4 0,0 5 0,0 0 0,3 3 0,2 2 0,2-1 0,-7 1 0,0-1 0,1 1 0,-1 2 0,4 1 0,-5 0 0,5 2 0,-4-1 0,8-1 0,1 0 0,0-1 0,5 4 0,0-1 0,7-1 0,-1-1 0,5-2 0,1 4 0,1-1 0,1-1 0,0 0 0,1 3 0,2-2 0,0 4 0,-1 2 0,0 0 0,0 1 0,0 0 0,4 0 0,0 0 0,2 0 0,5 0 0,0 0 0,-11 3 0,-4 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30977">1790 4490 8027,'-4'52'0,"-1"-1"0,0 29 0,3-24 0,2-1 0,0 3 0,0 14 0,0-1 0,0 3 0,0 4 0,0 2 0,0 1 0,0-1 0,0-5 0,0-9 0,0 1 0,0-9 0,0 1 0,0-1 0,0-5 0,0-3 0,0-5 0,0-7 0,0-2 0,0-4 0,0-4 0,0-2 0,0-7 0,0 0 0,0-5 0,0-3 0,0-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 4 0,0 2 0,0 5 0,0 0 0,0 2 0,0-1 0,0 2 0,0-3 0,-1-1 0,-2-4 0,2-2 0,-2-4 0,3 1 0,0-1 0,0 0 0,0 0 0,3 4 0,2 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30069">5776 4614 8027,'9'69'0,"-2"-6"0,-7-20 0,0 3 0,0 11 0,0 2 0,0 2 0,0 0 0,0 2 0,-2-2 0,-2 2 0,-1 1 0,-1 1 0,2-2 0,2-4 0,1-4 0,1-7 0,0 10 0,0-6 0,0 1 0,0-4 0,0-2 0,0-2 0,0-4 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0-1 0,0 0 0,0 0 0,0-2 0,0-6 0,0 1 0,0-7 0,0 2 0,0-7 0,0 1 0,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0 2 0,0-1 0,0 5 0,1-4 0,1-1 0,-1 0 0,2-2 0,-2 1 0,-1-1 0,0-2 0,0 0 0,0-4 0,0 1 0,0-2 0,0-1 0,0 4 0,0 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="14814">5976 4121 24575,'22'0'0,"33"0"0,-6 0 0,7 0 0,19 0 0,4 0 0,13 0 0,4 0 0,-30 0 0,2 1 0,0 0 0,2 2 0,1 1 0,0 1 0,-2 1 0,-1 2 0,-1 0 0,27 8 0,-2 3 0,-10 1 0,-4 1 0,-14-3 0,-4 0 0,-8-1 0,-2-1 0,30 8 0,-12-8 0,-9-8 0,-1-5 0,2-3 0,-1 0 0,3 0 0,0 0 0,1 0 0,0 0 0,-6 0 0,-5 0 0,-11 0 0,-9 0 0,-9 0 0,-13 0 0,-4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="16164">5879 6347 24575,'19'0'0,"30"0"0,51 0 0,-28 0 0,5 0 0,17 0 0,5 0-395,-24 0 1,3 0 0,0 0 394,4 0 0,2 0 0,0 0 0,2 2 0,0 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,-4 2 0,-1-1 0,-1 2 39,-7-1 0,-2 2 0,0-2-39,28 3 0,-1 0 0,-8-1 0,-3 1 0,-8-2 0,-3 1 0,-6-3 0,-4 1 0,35 6 0,-24 0 886,-19 0-886,-17 1 180,-13-4-180,-9-3 0,-10-3 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21214">1990 1186 24575,'0'13'0,"0"29"0,0 37 0,0-24 0,0 3 0,0 12 0,0 2 0,0 5 0,0 2 0,0 7 0,0 2 0,0 8 0,0 3-182,0-28 1,0 1 0,0-1 181,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0 3 0,0 0 0,0-1 0,0-2 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0-1 0,0 0 0,0 23 0,0-3 0,0-5 0,0-3 0,0-12 0,0-4 0,0 36 0,0-23 0,0-14 0,0-15 544,0-9-544,0-11 0,0-8 0,1-8 0,0-6 0,1-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="22930">5858 1470 24575,'0'24'0,"0"68"0,0-16 0,0 9 0,0-12 0,0 4 0,0 3-669,0 10 0,0 3 0,0-1 669,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0-1 0,0-2 0,0 1 0,0-3 0,0 0 0,0-1 0,0-3 0,0-1 0,0-1 112,0-3 0,0-1 0,0-1-112,0 24 0,0-3 202,0-12 1,0-4-203,0-13 0,0-4 0,0 35 0,0-19 1017,0-16-1017,0-11 249,-3-10-249,0-9 0,0-6 0,2-7 0,1-8 0,0-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="24747">7253 2664 24575,'0'16'0,"0"35"0,0 1 0,0 10 0,1 0 0,-1 6 0,-1 4 0,1 14 0,-2 6 0,0 2-575,0-16 0,0 3 1,0 1-1,-1 0 575,1 3 0,-1 1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,1 1 0,0 0 0,0 1 0,0-2 0,1-2 0,0 0 0,0-1 0,0 0 0,1-3 0,-1 1 0,1-2 0,1 0-87,0 17 1,2-1-1,1-2 87,0-8 0,2-1 0,1-1 0,0-5 0,1-2 0,1-1-64,0-5 0,0-2 0,0-1 64,2 29 0,-2-2 0,-2-9 0,-2-3 0,-2-8 0,-2-2 828,-2-7 0,0-2-828,0-6 0,0-2 875,0 41-875,0-14 220,0-11-220,0-7 0,0-6 0,0 1 0,0 7 0,0 4 0,0-1 0,0-11 0,0-19 0,-2-17 0,2-12 0,-2-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="26047">6968 3870 24575,'9'27'0,"8"23"0,16 29 0,-12-30 0,1 0 0,21 39 0,-1-15 0,-8-22 0,-5-19 0,-4-13 0,0-9 0,1-5 0,3-5 0,4 0 0,6 0 0,9-10 0,14-22 0,13-29 0,-33 18 0,-1-4 0,1-5 0,0-1 0,-6 2 0,-1 1 0,18-31 0,-16 26 0,-22 30 0,-6 13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27381">6855 7032 24575,'0'-9'0,"0"-11"0,8-29 0,13-29 0,-5 27 0,3-3 0,3-7 0,2 0 0,0 1 0,0 1 0,-3 6 0,-1 3 0,13-26 0,-13 32 0,-7 24 0,-5 12 0,7 6 0,8 2 0,8 0 0,5 0 0,-2 0 0,2 0 0,3 0 0,4 0 0,6 11 0,2 20 0,0 26 0,-24-14 0,0 4 0,1 8 0,-1 2 0,3 6 0,0 1 0,3 2 0,1 0 0,-1-3 0,1-2 0,-2-7 0,-2-4 0,21 29 0,-17-28 0,-18-28 0,-6-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29247">0 2079 24575,'11'0'0,"25"0"0,63 0 0,-37 0 0,10 0 0,3 0 0,20 0 0,6 0 0,4 0-812,-13 2 0,3 0 0,2 1 0,2 0 812,-16 0 0,3 1 0,0-1 0,0 1 0,0 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,1 1 0,-1 1 0,0-1 0,-2 0 0,16 2 0,-1-1 0,-1 0 0,-2 0-184,-6 0 1,-1 0-1,-1 0 1,-1-1 183,-5 0 0,-1 0 0,-2 0 0,0-1 0,20 3 0,-1 1 0,-1-1-319,-1 0 0,1 1 0,-2 0 319,-4 1 0,-1 0 0,-2 1 0,-3 0 0,-1 1 0,0-1 0,1 1 0,0-1 0,-1 1-130,-9-1 0,0 0 0,-2-1 130,0-1 0,-1-1 0,-1-1 0,-4-2 0,0-1 0,-2 0 0,24 2 0,0-1 1029,-1 0 0,0 1-1029,-6 0 0,-1 1 779,-2 2 0,-2 0-779,-2 0 0,-3-1 577,-8-1 1,-2 0-578,-8-1 0,-2 0 514,32 2-514,-22-1 44,-17-2-44,-16-1 0,-10-2 0,-9-1 0,-4-1 0,1 0 0,-4 0 0,1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="30530">6688 2001 24575,'-5'0'0,"-11"3"0,-17 12 0,-23 24 0,-23 20 0,35-23 0,-1 2 0,-2 0 0,0 0 0,5-5 0,2-1 0,-30 24 0,16-12 0,15-10 0,9-1 0,3 0 0,7-1 0,3-1 0,3-8 0,11-5 0,12 7 0,29 23 0,-1-5 0,6 5 0,13 14 0,6 4 0,-16-18 0,2 0 0,0 0 0,24 23 0,-1-4 0,-11-10 0,-3-5 0,-13-13 0,-4-3 0,11 12 0,-27-23 0,-14-14 0,-8-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="31930">1523 1477 24575,'0'22'0,"15"29"0,5-5 0,7 6 0,14 20 0,6 4 0,-11-20 0,3 2 0,1-2 0,3 2 0,1-2 0,-1-1 0,17 19 0,-1-6 0,-7-12 0,-1-6 0,-8-7 0,-2-4 0,18 14 0,-18-16 0,-15-10 0,-12-7 0,-11-6 0,-19-6 0,-20 0 0,-29 4 0,18-3 0,-4 4 0,-12 7 0,-4 3 0,-14 9 0,-2 4 0,-5 3 0,0 3 0,0 4 0,1 0 0,7-2 0,3-2 0,15-7 0,4-2 0,-26 18 0,38-20 0,27-14 0,12-8 0,5-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="34312">2525 1 24575,'0'39'0,"0"53"0,0-10 0,0 8 0,0-18 0,0 3 0,0 0-289,0 3 1,0 1-1,0-1 289,0-6 0,0 0 0,0-4 0,0 19 0,0-6 142,0-18 1,0-6-143,0 19 143,0-32-143,0-16 0,0-9 0,0-9 0,0-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="35646">2525 128 24575,'4'-4'0,"9"1"0,18 1 0,21 2 0,22 0 0,16-1 0,-40 3 0,1 3 0,2 5 0,0 3 0,-1 4 0,-1 3 0,-4 5 0,-3 1 0,26 20 0,-20-7 0,-17-5 0,-7 0 0,-4 9 0,1 9 0,-1 10 0,0 4 0,-4 3 0,-8-1 0,-5-2 0,-5-4 0,-4 0 0,-9 2 0,-11 2 0,-14 3 0,-11-1 0,-6-4 0,-2-6 0,0-7 0,1-8 0,1-8 0,-1-5 0,-4-10 0,-4-7 0,-1-7 0,7-4 0,14-2 0,21 0 0,11 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="36831">3611 1146 24575,'0'5'0,"0"21"0,0 31 0,0 29 0,0-36 0,0 1 0,0 0 0,0 0 0,0 36 0,0-15 0,0-21 0,0-26 0,0-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38081">3590 969 24575,'18'0'0,"11"0"0,14 0 0,10 0 0,1 0 0,-2 0 0,-6 1 0,-11 6 0,-6 2 0,-10 5 0,-5 2 0,-5 4 0,-4 4 0,-3 5 0,-2 2 0,0 2 0,0-3 0,-4-4 0,-5-3 0,-7-4 0,-8 0 0,-6 1 0,-9 1 0,-5 2 0,-5 1 0,1 0 0,2-2 0,6-6 0,8-5 0,8-5-1696,9-4 0,7 0 0,3-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38912">4528 901 24575,'-3'0'0,"14"0"0,34-6 0,41-1 0,-29 2 0,3 0 0,7-1 0,0 2 0,-8 2 0,-3 0 0,32-1 0,-29 3 0,-35 0 0,-13 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39729">4653 1341 24575,'16'0'0,"14"0"0,26 0 0,14 0 0,2 0 0,-29 0 0,-19 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47245">6336 678 24575,'-4'32'0,"-6"19"0,-4 29 0,5-31 0,2 1 0,-4 49 0,6-10 0,3-20 0,2-16 0,0-12 0,6-7 0,11-5 0,10-3 0,8-4 0,1-6 0,-3-6 0,-1-6 0,-1-4 0,3-1 0,4-7 0,2-11 0,0-11 0,-3-9 0,-5-3 0,-5-3 0,0-4 0,-3-4 0,0-5 0,-5-1 0,-9 4 0,-6 4 0,-5 9 0,-5 5 0,-6 5 0,-7 4 0,-6 2 0,-3 4 0,-2-1 0,-1 3 0,0 1 0,1 2 0,4 3 0,6 4 0,4 2 0,2 4 0,0 2 0,-3 2 0,-2 0 0,-4 0 0,0-1 0,10 1 0,5 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47996">7000 1314 24575,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="49978">7799 708 24575,'-13'0'0,"-5"-2"0,-9-2 0,-7-1 0,-4 0 0,0 2 0,2 1 0,1 2 0,1 0 0,-1 7 0,-1 10 0,4 9 0,3 10 0,4 0 0,9 0 0,4-1 0,6-2 0,3 0 0,3-1 0,13 3 0,20 4 0,25 10 0,-19-19 0,4 2 0,4 4 0,0 2 0,0 5 0,0 0 0,-4-2 0,-2 0 0,27 30 0,-20-18 0,-17-17 0,-13-9 0,-10-7 0,-7-1 0,-16 1 0,-16-2 0,-15-1 0,-9-5 0,-1-6 0,3-4 0,8-2 0,9-6 0,10-9 0,9-14 0,8-11 0,6-11 0,3-8 0,2-6 0,6-7 0,6 1 0,5 5 0,4 4 0,-2 10 0,1 0 0,-3 4 0,-4 3 0,-5 3 0,-6 6 0,-3 4 0,-1 2 0,0 4 0,-4 3 0,-7 4 0,-5 2 0,-3 3 0,9 7 0,3 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="52346">8285 1232 24575,'0'14'0,"0"20"0,0 19 0,0 14 0,0-1 0,0-16 0,0-16 0,0-16 0,0-4 0,0-1 0,0 1 0,0 1 0,0 1 0,0-5 0,0-6 0,0-12 0,2-14 0,5-14 0,7-23 0,6-19 0,2-12 0,0 0 0,-5 12 0,-1 12 0,-2 13 0,0 12 0,-1 9 0,2 10 0,-2 7 0,0 5 0,-1 4 0,0 2 0,1 1 0,1 10 0,2 18 0,-1 19 0,-4 20 0,-3 8 0,-6 0 0,-2-3 0,0-10 0,0-12 0,0-13 0,0-12 0,0-16 0,0-11 0,0-15 0,0-13 0,2-10 0,4-10 0,-1 0 0,3 4 0,1 7 0,1 6 0,3 3 0,2 3 0,4 2 0,7 2 0,4 0 0,2 5 0,-2 5 0,-2 4 0,-2 6 0,-2 3 0,2 2 0,-2 0 0,0 2 0,-1 10 0,-3 16 0,-6 22 0,-5 18 0,-5 6 0,-3-7 0,-1-16 0,0-17 0,0-18 0,0-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="54296">9398 1212 24575,'0'3'0,"0"19"0,0 28 0,0 38 0,0-33 0,0 2 0,0 1 0,0 0 0,0-3 0,0-3 0,0 28 0,0-22 0,0-16 0,0-15 0,0-13 0,5-26 0,8-37 0,4-44 0,-6 34 0,-1-3 0,0-2 0,-1 2 0,-2 6 0,0 3 0,6-23 0,-3 30 0,-2 20 0,-2 15 0,1 6 0,3 3 0,4 8 0,4 18 0,2 17 0,-1 19 0,-3 10 0,-4 0 0,-4-2 0,-4-10 0,-2-13 0,-1-14 0,-1-12 0,0-16 0,2-20 0,6-30 0,6-27 0,7-17 0,4-3 0,-2 16 0,-1 22 0,-5 22 0,-4 16 0,-4 10 0,-1 4 0,3 3 0,3 11 0,4 19 0,4 26 0,-4 21 0,-5 4 0,-8-10 0,-5-18 0,0-16 0,0-18 0,0-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57046">8968 5377 24575,'0'21'0,"0"20"0,0 43 0,0-31 0,0 3 0,0 4 0,0-1 0,0-1 0,0-2 0,0 35 0,0-27 0,3-26 0,14-19 0,26-14 0,29-11 0,20-6 0,1-2 0,-21 0 0,-24 6 0,-28 5 0,-11 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57878">9700 5822 24575,'0'24'0,"0"34"0,0 28 0,0-30 0,0 2 0,0 2 0,0-1 0,0-6 0,0-2 0,0 38 0,0-30 0,0-22 0,0-12 0,0-14 0,0-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="58795">9700 5920 24575,'6'0'0,"4"0"0,8 0 0,5 0 0,7 0 0,7 0 0,6 3 0,7 6 0,-3 6 0,-10 3 0,-10 2 0,-10-2 0,-9-1 0,-4-1 0,-10 1 0,-11 2 0,-12 4 0,-13 1 0,-3-3 0,1-6 0,8-3 0,10-5 0,13-3 0,6-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="59661">10431 5621 24575,'26'0'0,"16"0"0,19 0 0,4 0 0,-16 0 0,-22 0 0,-14 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="60345">10496 5895 24575,'15'0'0,"12"0"0,23 0 0,7 0 0,-13 0 0,-16 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="63062">11501 5312 24575,'0'27'0,"0"39"0,0-9 0,0 7 0,0 16 0,0 3 0,0 7 0,0 1 0,0-4 0,0-2 0,0-16 0,0-4 0,0 30 0,0-42 0,0-36 0,0-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="65178">12050 5868 24575,'0'21'0,"0"25"0,0 25 0,0 18 0,0-6 0,0-17 0,0-19 0,0-18 0,0-11 0,0-5 0,0-8 0,3-14 0,7-17 0,8-17 0,13-14 0,5-7 0,2-2 0,-3 7 0,-7 17 0,-8 17 0,-6 16 0,-3 6 0,0 4 0,3 9 0,-1 15 0,-1 19 0,-5 16 0,-3 8 0,-3-2 0,-1-6 0,0-11 0,0-13 0,0-11 0,0-13 0,2-19 0,3-25 0,6-23 0,4-21 0,2-1 0,1 10 0,-3 15 0,-2 22 0,-2 11 0,1 8 0,2 5 0,2 3 0,4 2 0,7 1 0,5 2 0,7 7 0,3 12 0,-2 15 0,-5 13 0,-5 6 0,-10 1 0,-7-7 0,-6-11 0,-6-9 0,-1-15 0,0-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="66728">12876 6003 24575,'0'8'0,"0"14"0,0 27 0,0 27 0,0 15 0,0-5 0,0-20 0,0-21 0,0-19 0,0-21 0,5-34 0,10-34 0,14-31 0,-11 42 0,0 0 0,19-38 0,-6 24 0,-8 26 0,-2 20 0,-2 10 0,0 6 0,0 3 0,3 10 0,3 14 0,3 19 0,-3 21 0,-8 11 0,-9 3 0,-5-6 0,-3-14 0,0-16 0,0-21 0,0-25 0,5-33 0,11-35 0,13-17 0,-10 43 0,2 2 0,21-28 0,-3 28 0,-4 21 0,-2 16 0,-1 15 0,-2 15 0,-3 16 0,-6 16 0,-4 6 0,-6 2 0,-6 4 0,-2-30 0,-3-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1593 5801 8027,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379">1593 5801 8027,'-1'73'0,"0"-1"0,-2-4 0,5-17 0,12-34 0,2 4 0,5 4 0,5 0 0,2 2 0,3 1 0,1 0 0,-2 3 0,-1-1 0,1 0 0,-2 0 0,3-3 0,-3 0 0,1-1 0,-2-1 0,-1-2 0,1-1 0,-3 1 0,2-3 0,-1-1 0,-2-3 0,1 1 0,-1-1 0,0-3 0,1 2 0,0-4 0,-1 3 0,0-3 0,2 0 0,0-3 0,2 1 0,1 1 0,1 1 0,-2-1 0,3 0 0,0-2 0,0 3 0,1 0 0,-2 3 0,0-3 0,-2 2 0,2-2 0,1 0 0,-4-2 0,3-1 0,-3 0 0,1 0 0,-1 1 0,-1-1 0,4 0 0,0 0 0,1 1 0,2-1 0,3-3 0,5 1 0,0-4 0,4 0 0,0-1 0,5-1 0,-8 0 0,7 0 0,-1 0 0,1 0 0,0 0 0,-3 0 0,0 0 0,-3 0 0,-1-2 0,-2-1 0,-2-4 0,0 2 0,-4-2 0,0-2 0,-1 4 0,0-1 0,-1 1 0,-2-3 0,0-1 0,-3 4 0,3-1 0,-3 1 0,2-3 0,1-3 0,2 0 0,0-4 0,1 1 0,0-1 0,-1-2 0,-3 1 0,1-1 0,-1 0 0,1 1 0,0 2 0,-3 0 0,0 3 0,-2-2 0,2 3 0,0-1 0,0 2 0,-2 3 0,0 0 0,-2 1 0,5-1 0,-2 1 0,1-1 0,1-2 0,-1 0 0,3-1 0,1-2 0,-1 2 0,-1-2 0,0 1 0,-5 2 0,-1 0 0,-1 0 0,-1-1 0,-5 1 0,4 0 0,-1 0 0,1-2 0,-1-1 0,2-1 0,3-5 0,1 1 0,0-1 0,-3 3 0,-1 1 0,2-2 0,-2 2 0,1-1 0,-4 4 0,2-1 0,-4-1 0,-2 1 0,2 0 0,-1 3 0,-4 1 0,1 1 0,-2 0 0,-1 3 0,-1-3 0,-2 1 0,2 0 0,0-17 0,5-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-33751">3824 3326 8027,'-80'-46'0,"22"18"0,11 19 0,5 9 0,-1 0 0,-5 0 0,-2 1 0,-12 2 0,-5 2 0,-4 6 0,-3-1 0,-4 4 0,-1 3 0,1 2 0,0 5 0,0 0 0,-1 2 0,2 5 0,-2 0 0,5 5 0,3 2 0,3 2 0,5 2 0,5 0 0,10-4 0,-4 11 0,11-10 0,-4 6 0,11-9 0,1 4 0,2 1 0,3 3 0,5 0 0,4 9 0,5-1 0,7 3 0,4-3 0,2 0 0,1 4 0,10-6 0,5 3 0,11-6 0,10-3 0,3 1 0,5-2 0,2 1 0,5-2 0,7-1 0,2-2 0,9-1 0,0-2 0,6 2 0,1-4 0,2-1 0,6 0 0,2-6 0,6-3 0,-1-5 0,3-2 0,-1-4 0,-43-5 0,2-1 0,-4-1 0,0-1 0,5-1 0,-1-1 0,36 0 0,6-2 0,1-1 0,-1 0 0,-46 0 0,0-1 0,0 0 0,0-1 0,1-1 0,-1-2 0,46-9 0,-1-5 0,-2-3 0,1 0 0,-3-3 0,-3 1 0,-2-6 0,-8 0 0,0-3 0,-14 2 0,1-2 0,-15 4 0,7-4 0,-8 2 0,-3-2 0,-2 0 0,-5 0 0,-6-3 0,-6 0 0,-1 0 0,-3 0 0,-2-2 0,-7-4 0,-1-2 0,-3 2 0,-3-2 0,-1 2 0,-4 1 0,0-1 0,0 1 0,-8 1 0,-5 1 0,-5 0 0,-6 3 0,0-3 0,1 4 0,-2-4 0,0 3 0,-4 1 0,-2 2 0,-2-1 0,-3-2 0,0 7 0,-9-1 0,3 6 0,-7-1 0,-2 4 0,1 5 0,0 0 0,3 3 0,1 2 0,3-1 0,-7 1 0,-1-1 0,2 1 0,-1 2 0,4 1 0,-6 0 0,6 2 0,-4-1 0,7-1 0,2 0 0,-1-1 0,5 4 0,0-1 0,7-1 0,-1-1 0,4-2 0,2 4 0,0-1 0,1-1 0,1 0 0,0 3 0,2-2 0,0 4 0,-1 2 0,1 0 0,-1 1 0,0 0 0,4 0 0,0 0 0,2 0 0,5 0 0,-1 0 0,-9 3 0,-5 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30977">1694 4490 8027,'-3'52'0,"-2"-1"0,0 29 0,3-24 0,2-1 0,0 3 0,0 14 0,0-1 0,0 3 0,0 4 0,0 2 0,0 1 0,0-1 0,0-5 0,0-9 0,0 1 0,0-9 0,0 1 0,0-1 0,0-5 0,0-3 0,0-5 0,0-7 0,0-2 0,0-4 0,0-4 0,0-2 0,0-7 0,0 0 0,0-5 0,0-3 0,0-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 4 0,0 2 0,0 5 0,0 0 0,0 2 0,0-1 0,0 2 0,0-3 0,-1-1 0,-1-4 0,1-2 0,-2-4 0,3 1 0,0-1 0,0 0 0,0 0 0,3 4 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30069">5468 4614 8027,'8'69'0,"-1"-6"0,-7-20 0,0 3 0,0 11 0,0 2 0,0 2 0,0 0 0,0 2 0,-2-2 0,-2 2 0,0 1 0,-2 1 0,2-2 0,2-4 0,1-4 0,1-7 0,0 10 0,0-6 0,0 1 0,0-4 0,0-2 0,0-2 0,0-4 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0-1 0,0 0 0,0 0 0,0-2 0,0-6 0,0 1 0,0-7 0,0 2 0,0-7 0,0 1 0,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0 2 0,0-1 0,0 5 0,1-4 0,1-1 0,-1 0 0,2-2 0,-2 1 0,-1-1 0,0-2 0,0 0 0,0-4 0,0 1 0,0-2 0,0-1 0,0 4 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="14814">5657 4121 24575,'21'0'0,"31"0"0,-6 0 0,7 0 0,18 0 0,4 0 0,12 0 0,4 0 0,-28 0 0,1 1 0,0 0 0,3 2 0,0 1 0,0 1 0,-2 1 0,0 2 0,-2 0 0,26 8 0,-2 3 0,-9 1 0,-4 1 0,-14-3 0,-3 0 0,-8-1 0,-1-1 0,27 8 0,-10-8 0,-9-8 0,-1-5 0,1-3 0,0 0 0,3 0 0,0 0 0,0 0 0,1 0 0,-6 0 0,-5 0 0,-10 0 0,-9 0 0,-8 0 0,-13 0 0,-3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="16164">5565 6347 24575,'18'0'0,"29"0"0,47 0 0,-25 0 0,3 0 0,17 0 0,5 0-395,-23 0 1,3 0 0,0 0 394,3 0 0,3 0 0,-1 0 0,3 2 0,-1 0 0,0 1 0,-2 0 0,1 1 0,-3 0 0,-3 2 0,-1-1 0,-1 2 39,-7-1 0,-1 2 0,-1-2-39,27 3 0,-1 0 0,-7-1 0,-4 1 0,-7-2 0,-3 1 0,-5-3 0,-5 1 0,34 6 0,-23 0 886,-17 0-886,-17 1 180,-13-4-180,-8-3 0,-9-3 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21214">1884 1186 24575,'0'13'0,"0"29"0,0 37 0,0-24 0,0 3 0,0 12 0,0 2 0,0 5 0,0 2 0,0 7 0,0 2 0,0 8 0,0 3-182,0-28 1,0 1 0,0-1 181,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0 3 0,0 0 0,0-1 0,0-2 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0-1 0,0 0 0,0 23 0,0-3 0,0-5 0,0-3 0,0-12 0,0-4 0,0 36 0,0-23 0,0-14 0,0-15 544,0-9-544,0-11 0,0-8 0,1-8 0,0-6 0,1-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="22930">5545 1470 24575,'0'24'0,"0"68"0,0-16 0,0 9 0,0-12 0,0 4 0,0 3-669,0 10 0,0 3 0,0-1 669,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0-1 0,0-2 0,0 1 0,0-3 0,0 0 0,0-1 0,0-3 0,0-1 0,0-1 112,0-3 0,0-1 0,0-1-112,0 24 0,0-3 202,0-12 1,0-4-203,0-13 0,0-4 0,0 35 0,0-19 1017,0-16-1017,0-11 249,-2-10-249,-1-9 0,0-6 0,2-7 0,1-8 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="24747">6866 2664 24575,'0'16'0,"0"35"0,0 1 0,0 10 0,1 0 0,-1 6 0,-1 4 0,1 14 0,-2 6 0,0 2-575,0-16 0,0 3 1,1 1-1,-2 0 575,1 3 0,-1 1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,2 1 0,-1-1 0,1 1 0,0 0 0,0 1 0,0-2 0,1-2 0,0 0 0,0-1 0,0 0 0,1-3 0,-1 1 0,1-2 0,1 0-87,0 17 1,1-1-1,2-2 87,0-8 0,1-1 0,2-1 0,0-5 0,0-2 0,2-1-64,-1-5 0,1-2 0,-1-1 64,2 29 0,-1-2 0,-3-9 0,-1-3 0,-2-8 0,-2-2 828,-2-7 0,0-2-828,0-6 0,0-2 875,0 41-875,0-14 220,0-11-220,0-7 0,0-6 0,0 1 0,0 7 0,0 4 0,0-1 0,0-11 0,0-19 0,-2-17 0,2-12 0,-2-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="26047">6596 3870 24575,'9'27'0,"7"23"0,15 29 0,-11-30 0,1 0 0,19 39 0,0-15 0,-8-22 0,-4-19 0,-4-13 0,-1-9 0,2-5 0,2-5 0,5 0 0,4 0 0,10-10 0,13-22 0,12-29 0,-32 18 0,0-4 0,1-5 0,0-1 0,-6 2 0,-1 1 0,17-31 0,-15 26 0,-21 30 0,-5 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27381">6489 7032 24575,'0'-9'0,"0"-11"0,8-29 0,12-29 0,-5 27 0,3-3 0,3-7 0,1 0 0,1 1 0,0 1 0,-3 6 0,-1 3 0,12-26 0,-12 32 0,-7 24 0,-4 12 0,6 6 0,8 2 0,7 0 0,5 0 0,-2 0 0,2 0 0,3 0 0,4 0 0,5 11 0,3 20 0,-1 26 0,-23-14 0,1 4 0,1 8 0,-2 2 0,3 6 0,1 1 0,2 2 0,1 0 0,0-3 0,0-2 0,-2-7 0,-2-4 0,21 29 0,-17-28 0,-17-28 0,-5-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29247">0 2079 24575,'10'0'0,"24"0"0,60 0 0,-35 0 0,9 0 0,3 0 0,19 0 0,6 0 0,3 0-812,-12 2 0,3 0 0,2 1 0,2 0 812,-16 0 0,4 1 0,-1-1 0,0 1 0,1 1 0,-1 0 0,2 1 0,-2 1 0,1 0 0,0 0 0,0 0 0,1 1 0,0 1 0,-1-1 0,-1 0 0,14 2 0,0-1 0,-1 0 0,-3 0-184,-4 0 1,-2 0-1,-1 0 1,-1-1 183,-4 0 0,-2 0 0,-1 0 0,0-1 0,19 3 0,-2 1 0,0-1-319,-1 0 0,1 1 0,-2 0 319,-4 1 0,-1 0 0,-2 1 0,-3 0 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 1-130,-9-1 0,0 0 0,-2-1 130,0-1 0,-1-1 0,-1-1 0,-4-2 0,1-1 0,-3 0 0,23 2 0,1-1 1029,-2 0 0,0 1-1029,-5 0 0,-2 1 779,-1 2 0,-2 0-779,-2 0 0,-3-1 577,-8-1 1,-1 0-578,-8-1 0,-2 0 514,31 2-514,-22-1 44,-15-2-44,-16-1 0,-9-2 0,-8-1 0,-5-1 0,2 0 0,-4 0 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="30530">6331 2001 24575,'-5'0'0,"-10"3"0,-16 12 0,-22 24 0,-22 20 0,34-23 0,-2 2 0,-2 0 0,1 0 0,4-5 0,2-1 0,-28 24 0,15-12 0,14-10 0,9-1 0,2 0 0,7-1 0,3-1 0,3-8 0,10-5 0,12 7 0,26 23 0,1-5 0,4 5 0,13 14 0,6 4 0,-16-18 0,3 0 0,-1 0 0,24 23 0,-2-4 0,-10-10 0,-4-5 0,-11-13 0,-4-3 0,10 12 0,-25-23 0,-14-14 0,-7-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="31930">1442 1477 24575,'0'22'0,"14"29"0,5-5 0,6 6 0,14 20 0,6 4 0,-11-20 0,3 2 0,1-2 0,2 2 0,2-2 0,-1-1 0,15 19 0,0-6 0,-6-12 0,-2-6 0,-7-7 0,-3-4 0,18 14 0,-17-16 0,-14-10 0,-12-7 0,-10-6 0,-18-6 0,-20 0 0,-26 4 0,16-3 0,-3 4 0,-11 7 0,-5 3 0,-13 9 0,-1 4 0,-5 3 0,-1 3 0,1 4 0,1 0 0,6-2 0,3-2 0,14-7 0,4-2 0,-24 18 0,35-20 0,26-14 0,12-8 0,4-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="34312">2390 1 24575,'0'39'0,"0"53"0,0-10 0,0 8 0,0-18 0,0 3 0,0 0-289,0 3 1,0 1-1,0-1 289,0-6 0,0 0 0,0-4 0,0 19 0,0-6 142,0-18 1,0-6-143,0 19 143,0-32-143,0-16 0,0-9 0,0-9 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="35646">2390 128 24575,'4'-4'0,"8"1"0,18 1 0,19 2 0,21 0 0,15-1 0,-37 3 0,0 3 0,2 5 0,0 3 0,-1 4 0,0 3 0,-5 5 0,-2 1 0,24 20 0,-19-7 0,-15-5 0,-8 0 0,-3 9 0,1 9 0,-1 10 0,-1 4 0,-2 3 0,-9-1 0,-4-2 0,-5-4 0,-4 0 0,-8 2 0,-11 2 0,-13 3 0,-10-1 0,-7-4 0,0-6 0,-1-7 0,1-8 0,1-8 0,-2-5 0,-2-10 0,-5-7 0,0-7 0,6-4 0,13-2 0,20 0 0,11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="36831">3418 1146 24575,'0'5'0,"0"21"0,0 31 0,0 29 0,0-36 0,0 1 0,0 0 0,0 0 0,0 36 0,0-15 0,0-21 0,0-26 0,0-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38081">3398 969 24575,'17'0'0,"11"0"0,13 0 0,9 0 0,1 0 0,-2 0 0,-5 1 0,-11 6 0,-6 2 0,-9 5 0,-4 2 0,-6 4 0,-3 4 0,-3 5 0,-2 2 0,0 2 0,0-3 0,-4-4 0,-5-3 0,-6-4 0,-7 0 0,-7 1 0,-8 1 0,-4 2 0,-6 1 0,2 0 0,1-2 0,6-6 0,8-5 0,7-5-1696,9-4 0,7 0 0,2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38912">4286 901 24575,'-2'0'0,"12"0"0,33-6 0,38-1 0,-27 2 0,3 0 0,6-1 0,1 2 0,-9 2 0,-2 0 0,31-1 0,-28 3 0,-34 0 0,-11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39729">4405 1341 24575,'15'0'0,"13"0"0,25 0 0,14 0 0,1 0 0,-28 0 0,-17 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47245">5998 678 24575,'-4'32'0,"-5"19"0,-5 29 0,6-31 0,1 1 0,-3 49 0,5-10 0,3-20 0,2-16 0,0-12 0,6-7 0,10-5 0,10-3 0,7-4 0,1-6 0,-3-6 0,-1-6 0,0-4 0,2-1 0,4-7 0,2-11 0,0-11 0,-3-9 0,-5-3 0,-5-3 0,1-4 0,-3-4 0,-1-5 0,-4-1 0,-8 4 0,-6 4 0,-5 9 0,-5 5 0,-5 5 0,-7 4 0,-6 2 0,-2 4 0,-3-1 0,0 3 0,-1 1 0,2 2 0,3 3 0,6 4 0,4 2 0,2 4 0,0 2 0,-3 2 0,-2 0 0,-4 0 0,0-1 0,10 1 0,4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47996">6627 1314 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="49978">7383 708 24575,'-12'0'0,"-5"-2"0,-9-2 0,-6-1 0,-4 0 0,0 2 0,2 1 0,1 2 0,0 0 0,0 7 0,-1 10 0,4 9 0,2 10 0,5 0 0,8 0 0,3-1 0,7-2 0,2 0 0,3-1 0,12 3 0,19 4 0,24 10 0,-18-19 0,4 2 0,3 4 0,1 2 0,-1 5 0,1 0 0,-4-2 0,-3 0 0,27 30 0,-20-18 0,-15-17 0,-13-9 0,-10-7 0,-6-1 0,-15 1 0,-15-2 0,-15-1 0,-8-5 0,-1-6 0,3-4 0,7-2 0,9-6 0,9-9 0,9-14 0,8-11 0,5-11 0,3-8 0,2-6 0,5-7 0,7 1 0,4 5 0,3 4 0,-1 10 0,1 0 0,-3 4 0,-4 3 0,-4 3 0,-6 6 0,-3 4 0,-1 2 0,0 4 0,-4 3 0,-7 4 0,-4 2 0,-3 3 0,9 7 0,2 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="52346">7843 1232 24575,'0'14'0,"0"20"0,0 19 0,0 14 0,0-1 0,0-16 0,0-16 0,0-16 0,0-4 0,0-1 0,0 1 0,0 1 0,0 1 0,0-5 0,0-6 0,0-12 0,2-14 0,4-14 0,8-23 0,5-19 0,1-12 0,1 0 0,-5 12 0,0 12 0,-3 13 0,0 12 0,-1 9 0,3 10 0,-3 7 0,0 5 0,0 4 0,-1 2 0,1 1 0,1 10 0,3 18 0,-2 19 0,-4 20 0,-2 8 0,-6 0 0,-2-3 0,0-10 0,0-12 0,0-13 0,0-12 0,0-16 0,0-11 0,0-15 0,0-13 0,2-10 0,3-10 0,0 0 0,3 4 0,0 7 0,2 6 0,2 3 0,2 3 0,4 2 0,7 2 0,3 0 0,2 5 0,-1 5 0,-3 4 0,-1 6 0,-2 3 0,1 2 0,-1 0 0,0 2 0,-2 10 0,-2 16 0,-5 22 0,-6 18 0,-4 6 0,-3-7 0,-1-16 0,0-17 0,0-18 0,0-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="54296">8897 1212 24575,'0'3'0,"0"19"0,0 28 0,0 38 0,0-33 0,0 2 0,0 1 0,0 0 0,0-3 0,0-3 0,0 28 0,0-22 0,0-16 0,0-15 0,0-13 0,4-26 0,9-37 0,3-44 0,-6 34 0,0-3 0,-1-2 0,0 2 0,-3 6 0,1 3 0,5-23 0,-2 30 0,-3 20 0,-1 15 0,0 6 0,4 3 0,3 8 0,4 18 0,2 17 0,-1 19 0,-3 10 0,-3 0 0,-5-2 0,-3-10 0,-2-13 0,-1-14 0,-1-12 0,0-16 0,2-20 0,5-30 0,7-27 0,5-17 0,5-3 0,-2 16 0,-1 22 0,-5 22 0,-4 16 0,-3 10 0,-2 4 0,4 3 0,2 11 0,4 19 0,4 26 0,-4 21 0,-5 4 0,-7-10 0,-5-18 0,0-16 0,0-18 0,0-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57046">8489 5377 24575,'0'21'0,"0"20"0,0 43 0,0-31 0,0 3 0,0 4 0,0-1 0,0-1 0,0-2 0,0 35 0,0-27 0,3-26 0,13-19 0,25-14 0,27-11 0,19-6 0,1-2 0,-19 0 0,-24 6 0,-26 5 0,-11 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57878">9182 5822 24575,'0'24'0,"0"34"0,0 28 0,0-30 0,0 2 0,0 2 0,0-1 0,0-6 0,0-2 0,0 38 0,0-30 0,0-22 0,0-12 0,0-14 0,0-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="58795">9182 5920 24575,'6'0'0,"4"0"0,7 0 0,4 0 0,8 0 0,6 0 0,6 3 0,6 6 0,-3 6 0,-9 3 0,-9 2 0,-10-2 0,-8-1 0,-5-1 0,-8 1 0,-11 2 0,-12 4 0,-12 1 0,-2-3 0,0-6 0,8-3 0,9-5 0,13-3 0,6-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="59661">9874 5621 24575,'25'0'0,"15"0"0,18 0 0,3 0 0,-15 0 0,-20 0 0,-14 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="60345">9936 5895 24575,'14'0'0,"12"0"0,21 0 0,7 0 0,-12 0 0,-16 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="63062">10887 5312 24575,'0'27'0,"0"39"0,0-9 0,0 7 0,0 16 0,0 3 0,0 7 0,0 1 0,0-4 0,0-2 0,0-16 0,0-4 0,0 30 0,0-42 0,0-36 0,0-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="65178">11407 5868 24575,'0'21'0,"0"25"0,0 25 0,0 18 0,0-6 0,0-17 0,0-19 0,0-18 0,0-11 0,0-5 0,0-8 0,3-14 0,6-17 0,8-17 0,13-14 0,4-7 0,2-2 0,-3 7 0,-7 17 0,-7 17 0,-5 16 0,-4 6 0,0 4 0,4 9 0,-2 15 0,-1 19 0,-4 16 0,-3 8 0,-3-2 0,-1-6 0,0-11 0,0-13 0,0-11 0,0-13 0,2-19 0,2-25 0,7-23 0,3-21 0,2-1 0,1 10 0,-3 15 0,-1 22 0,-3 11 0,1 8 0,3 5 0,1 3 0,4 2 0,6 1 0,6 2 0,5 7 0,4 12 0,-2 15 0,-5 13 0,-4 6 0,-10 1 0,-7-7 0,-5-11 0,-7-9 0,0-15 0,0-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="66728">12189 6003 24575,'0'8'0,"0"14"0,0 27 0,0 27 0,0 15 0,0-5 0,0-20 0,0-21 0,0-19 0,0-21 0,5-34 0,9-34 0,13-31 0,-10 42 0,0 0 0,18-38 0,-5 24 0,-8 26 0,-3 20 0,-1 10 0,0 6 0,0 3 0,3 10 0,3 14 0,2 19 0,-2 21 0,-8 11 0,-8 3 0,-5-6 0,-3-14 0,0-16 0,0-21 0,0-25 0,4-33 0,11-35 0,13-17 0,-10 43 0,2 2 0,20-28 0,-4 28 0,-2 21 0,-3 16 0,-1 15 0,-1 15 0,-4 16 0,-5 16 0,-4 6 0,-6 2 0,-5 4 0,-2-30 0,-3-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8170,34 +8381,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93590E98-52E1-0141-AEAD-7121020CBC35}">
   <dimension ref="B1:AA61"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" customWidth="1"/>
+    <col min="3" max="3" width="12.15234375" customWidth="1"/>
+    <col min="4" max="4" width="10.15234375" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3046875" customWidth="1"/>
     <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.6">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8217,16 +8428,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.6">
       <c r="B3">
         <v>-147.30000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D33" si="0">C3/10000</f>
-        <v>-2.12E-5</v>
+      <c r="D3" s="5">
+        <f>(C3/10000)*1000</f>
+        <v>-2.12E-2</v>
       </c>
       <c r="E3">
         <f>0.0000002*B3+0.000004</f>
@@ -8234,50 +8445,50 @@
       </c>
       <c r="F3">
         <f>E3-D3</f>
-        <v>-4.2600000000000033E-6</v>
+        <v>2.1174539999999999E-2</v>
       </c>
       <c r="Y3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.6">
       <c r="B4">
         <v>-125.3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>-0.1918</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-1.9179999999999999E-5</v>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D35" si="0">(C4/10000)*1000</f>
+        <v>-1.9179999999999999E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E33" si="1">0.0000002*B4+0.000004</f>
+        <f>0.0000002*B4+0.000004</f>
         <v>-2.1059999999999998E-5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="2">E4-D4</f>
-        <v>-1.8799999999999989E-6</v>
+        <f t="shared" ref="F4:F7" si="1">E4-D4</f>
+        <v>1.9158939999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.6">
       <c r="B5">
         <v>-100.9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>-0.158</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>-1.5800000000000001E-5</v>
+        <v>-1.5800000000000002E-2</v>
       </c>
       <c r="E5">
+        <f>0.0000002*B5+0.000004</f>
+        <v>-1.6180000000000001E-5</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>-1.6180000000000001E-5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>-3.7999999999999975E-7</v>
+        <v>1.578382E-2</v>
       </c>
       <c r="Q5">
         <v>-147.30000000000001</v>
@@ -8290,24 +8501,24 @@
         <v>-2.12E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:25">
-      <c r="B6">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B6" s="3">
         <v>-74.8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>-0.1085</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>-1.0849999999999999E-5</v>
+        <v>-1.085E-2</v>
       </c>
       <c r="E6">
+        <f>0.0000002*B6+0.000004</f>
+        <v>-1.096E-5</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>-1.096E-5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-1.1000000000000064E-7</v>
+        <v>1.0839039999999999E-2</v>
       </c>
       <c r="Q6">
         <v>-125.3</v>
@@ -8320,24 +8531,24 @@
         <v>-1.9179999999999999E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:25">
-      <c r="B7">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B7" s="3">
         <v>-49.7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>-2.8500000000000001E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>-2.8500000000000002E-6</v>
+        <v>-2.8500000000000001E-3</v>
       </c>
       <c r="E7">
+        <f>0.0000002*B7+0.000004</f>
+        <v>-5.9399999999999999E-6</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>-5.9399999999999999E-6</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>-3.0899999999999996E-6</v>
+        <v>2.8440600000000003E-3</v>
       </c>
       <c r="Q7">
         <v>-100.9</v>
@@ -8350,24 +8561,24 @@
         <v>-1.5800000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:25">
-      <c r="B8">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B8" s="3">
         <v>-40.4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.15609999999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>1.5609999999999998E-5</v>
+        <v>1.5609999999999997E-2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B8+0.000004</f>
         <v>-4.0799999999999991E-6</v>
       </c>
       <c r="F8">
         <f>E8+D8</f>
-        <v>1.153E-5</v>
+        <v>1.5605919999999997E-2</v>
       </c>
       <c r="Q8">
         <v>-74.8</v>
@@ -8380,24 +8591,24 @@
         <v>-1.0849999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:25">
-      <c r="B9">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B9" s="3">
         <v>-35.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.437</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>4.3699999999999998E-5</v>
+        <v>4.3699999999999996E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B9+0.000004</f>
         <v>-3.0199999999999999E-6</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F33" si="3">E9+D9</f>
-        <v>4.0679999999999997E-5</v>
+        <f t="shared" ref="F9:F33" si="2">E9+D9</f>
+        <v>4.3696979999999996E-2</v>
       </c>
       <c r="Q9">
         <v>-49.7</v>
@@ -8410,128 +8621,128 @@
         <v>-2.8500000000000002E-6</v>
       </c>
     </row>
-    <row r="10" spans="2:25">
-      <c r="B10">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B10" s="3">
         <v>-29.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>0.9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>9.0000000000000006E-5</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B10+0.000004</f>
         <v>-1.8999999999999996E-6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>8.81E-5</v>
+        <f t="shared" si="2"/>
+        <v>8.9998100000000011E-2</v>
       </c>
       <c r="S10">
         <f>AVERAGE(S5:S9)</f>
         <v>-1.3976000000000003E-5</v>
       </c>
     </row>
-    <row r="11" spans="2:25">
-      <c r="B11">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B11" s="3">
         <v>-25.1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>1.706</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>1.706E-4</v>
+        <v>0.1706</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B11+0.000004</f>
         <v>-1.0200000000000004E-6</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>1.6958000000000001E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.17059898000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:25">
-      <c r="B12">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B12" s="3">
         <v>-19.399999999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>2.97</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.9700000000000001E-4</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B12+0.000004</f>
         <v>1.2000000000000055E-7</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>2.9712E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.29700011999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.6">
       <c r="B13">
         <v>-15.06</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>5.09</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>5.0900000000000001E-4</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B13+0.000004</f>
         <v>9.8799999999999969E-7</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>5.0998800000000006E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.50900098800000004</v>
       </c>
     </row>
-    <row r="14" spans="2:25">
-      <c r="B14">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B14" s="5">
         <v>-9.7799999999999994</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>8.8699999999999988E-4</v>
+        <v>0.8869999999999999</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B14+0.000004</f>
         <v>2.0439999999999998E-6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>8.8904399999999986E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.88700204399999993</v>
       </c>
     </row>
-    <row r="15" spans="2:25">
-      <c r="B15">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B15" s="5">
         <v>-7.94</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>24.7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>2.47E-3</v>
+        <v>2.4699999999999998</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B15+0.000004</f>
         <v>2.4119999999999999E-6</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>2.4724119999999998E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.4700024119999999</v>
       </c>
       <c r="Q15" t="s">
         <v>8</v>
@@ -8540,24 +8751,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:25">
-      <c r="B16">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.6">
+      <c r="B16" s="5">
         <v>-6.91</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>37.1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>3.7100000000000002E-3</v>
+        <v>3.7100000000000004</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B16+0.000004</f>
         <v>2.6179999999999998E-6</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>3.712618E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.7100026180000003</v>
       </c>
       <c r="Q16">
         <v>8.8904399999999986E-4</v>
@@ -8567,159 +8778,159 @@
         <v>-7.0253638298618748</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
-      <c r="B17">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B17" s="5">
         <v>-5.01</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>44.3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>4.4299999999999999E-3</v>
+        <v>4.43</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B17+0.000004</f>
         <v>2.9979999999999999E-6</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>4.4329979999999996E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.430002998</v>
       </c>
       <c r="Q17">
         <v>2.4724119999999998E-3</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17:R21" si="4">LN(Q17)</f>
+        <f t="shared" ref="R17:R21" si="3">LN(Q17)</f>
         <v>-6.002561086607372</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
-      <c r="B18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B18" s="5">
         <v>-2.08</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>55.7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>5.5700000000000003E-3</v>
+        <v>5.57</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B18+0.000004</f>
         <v>3.5839999999999999E-6</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>5.5735840000000004E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.5700035840000002</v>
       </c>
       <c r="Q18">
         <v>3.712618E-3</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.5960179908466516</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B19">
         <v>-1.1879999999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>59.4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>5.94E-3</v>
+        <v>5.94</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B19+0.000004</f>
         <v>3.7623999999999998E-6</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>5.9437624000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.9400037624000008</v>
       </c>
       <c r="Q19">
         <v>4.4329979999999996E-3</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.4186791743810643</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
-      <c r="B20">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B20" s="5">
         <v>4.8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>65.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
-        <v>6.5500000000000003E-3</v>
+        <v>6.5500000000000007</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B20+0.000004</f>
         <v>4.9599999999999999E-6</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>6.5549600000000003E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.5500049600000008</v>
       </c>
       <c r="Q20">
         <v>5.5735840000000004E-3</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.1897169849285296</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B21">
         <v>10.35</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>67.3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>6.7299999999999999E-3</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B21+0.000004</f>
         <v>6.0699999999999995E-6</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>6.7360700000000003E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.73000607</v>
       </c>
       <c r="Q21">
         <v>5.9437624000000001E-3</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.1254129454477235</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B22">
         <v>15.14</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>68.3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <f t="shared" si="0"/>
-        <v>6.8300000000000001E-3</v>
+        <v>6.83</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B22+0.000004</f>
         <v>7.0279999999999995E-6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
-        <v>6.8370280000000002E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.8300070279999998</v>
       </c>
       <c r="Q22">
         <v>6.5549600000000003E-3</v>
@@ -8729,230 +8940,230 @@
         <v>-5.0275332639971442</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
-      <c r="B23">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B23" s="3">
         <v>20.2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>68.2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>6.8200000000000005E-3</v>
+        <v>6.82</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B23+0.000004</f>
         <v>8.0399999999999993E-6</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
-        <v>6.8280400000000005E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.8200080400000003</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
-      <c r="B24">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B24" s="3">
         <v>25.2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>68.900000000000006</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>6.8900000000000003E-3</v>
+        <v>6.8900000000000006</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B24+0.000004</f>
         <v>9.0399999999999998E-6</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
-        <v>6.8990400000000004E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.8900090400000007</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
-      <c r="B25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B25" s="3">
         <v>50.2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>69.8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
-        <v>6.9800000000000001E-3</v>
+        <v>6.98</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B25+0.000004</f>
         <v>1.4040000000000001E-5</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
-        <v>6.99404E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.9800140400000004</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
-      <c r="B26">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B26" s="3">
         <v>75</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>69.900000000000006</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
-        <v>6.9900000000000006E-3</v>
+        <v>6.99</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B26+0.000004</f>
         <v>1.8999999999999998E-5</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
-        <v>7.0090000000000005E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.9900190000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B27">
         <v>100.3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>70</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B27+0.000004</f>
         <v>2.4059999999999997E-5</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
-        <v>7.0240600000000004E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0000240600000003</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B28">
         <v>124.9</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>70.2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
-        <v>7.0200000000000002E-3</v>
+        <v>7.0200000000000005</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B28+0.000004</f>
         <v>2.898E-5</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
-        <v>7.0489799999999998E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0200289800000002</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
-      <c r="B29">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B29" s="7">
         <v>150</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>70.3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
-        <v>7.0299999999999998E-3</v>
+        <v>7.0299999999999994</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B29+0.000004</f>
         <v>3.4E-5</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
-        <v>7.064E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0300339999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B30">
         <v>175.1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>70.400000000000006</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <f t="shared" si="0"/>
-        <v>7.0400000000000003E-3</v>
+        <v>7.04</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B30+0.000004</f>
         <v>3.9020000000000002E-5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>7.0790200000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.04003902</v>
       </c>
       <c r="R30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
-      <c r="B31">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B31" s="7">
         <v>200</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>70.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <f t="shared" si="0"/>
-        <v>7.0499999999999998E-3</v>
+        <v>7.05</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B31+0.000004</f>
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>7.0939999999999996E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0500439999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
-      <c r="B32">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.6">
+      <c r="B32" s="7">
         <v>225</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>70.599999999999994</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
-        <v>7.0599999999999994E-3</v>
+        <v>7.06</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B32+0.000004</f>
         <v>4.8999999999999998E-5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>7.108999999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0600489999999994</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="B33" s="7">
         <v>250</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>70.8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <f t="shared" si="0"/>
-        <v>7.0799999999999995E-3</v>
+        <v>7.0799999999999992</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f>0.0000002*B33+0.000004</f>
         <v>5.3999999999999998E-5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>7.1339999999999997E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0800539999999996</v>
       </c>
     </row>
-    <row r="61" spans="27:27">
+    <row r="61" spans="27:27" x14ac:dyDescent="0.6">
       <c r="AA61" s="1"/>
     </row>
   </sheetData>
@@ -8969,22 +9180,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20CEB1-46B0-934B-BC66-43FA29190160}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.84375" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.6">
       <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -8995,7 +9206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -9006,7 +9217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.6">
       <c r="E4" t="s">
         <v>17</v>
       </c>
@@ -9016,8 +9227,13 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
+      <c r="L4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -9030,9 +9246,6 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
       <c r="L5">
         <v>3</v>
       </c>
@@ -9042,11 +9255,8 @@
       <c r="N5">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B6" s="3">
         <v>0.1</v>
       </c>
@@ -9090,7 +9300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B7">
         <v>0.35</v>
       </c>
@@ -9126,7 +9336,7 @@
         <v>120</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:R17" si="1">M$5*K7</f>
+        <f t="shared" ref="Q7:Q17" si="1">M$5*K7</f>
         <v>200</v>
       </c>
       <c r="R7">
@@ -9134,7 +9344,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B8" s="3">
         <v>0.4</v>
       </c>
@@ -9169,7 +9379,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B9">
         <v>0.49</v>
       </c>
@@ -9201,7 +9411,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B10" s="3">
         <v>0.6</v>
       </c>
@@ -9233,7 +9443,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B11">
         <v>0.72</v>
       </c>
@@ -9265,7 +9475,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B12" s="3">
         <v>0.8</v>
       </c>
@@ -9297,7 +9507,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B13">
         <v>0.91</v>
       </c>
@@ -9329,7 +9539,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B14" s="3">
         <v>1.02</v>
       </c>
@@ -9361,7 +9571,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B15">
         <v>1.1200000000000001</v>
       </c>
@@ -9393,7 +9603,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B16" s="3">
         <v>1.2</v>
       </c>
@@ -9425,7 +9635,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B17" s="3">
         <v>1.3</v>
       </c>
@@ -9457,7 +9667,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B18" s="3">
         <v>1.5</v>
       </c>
@@ -9465,7 +9675,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B19" s="3">
         <v>1.6</v>
       </c>
@@ -9473,7 +9683,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B20" s="3">
         <v>1.7</v>
       </c>
@@ -9481,7 +9691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B21" s="3">
         <v>1.8</v>
       </c>
@@ -9489,7 +9699,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -9497,7 +9707,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B23" s="3">
         <v>2.1</v>
       </c>
@@ -9505,7 +9715,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B24" s="3">
         <v>2.21</v>
       </c>
@@ -9513,7 +9723,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B25" s="3">
         <v>0.3</v>
       </c>
@@ -9521,7 +9731,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B26" s="3">
         <v>2.4</v>
       </c>
@@ -9529,7 +9739,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B27" s="3">
         <v>2.5</v>
       </c>
@@ -9537,7 +9747,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B28" s="3">
         <v>2.61</v>
       </c>
@@ -9545,7 +9755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B29" s="3">
         <v>2.75</v>
       </c>
@@ -9553,7 +9763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B30" s="3">
         <v>2.9</v>
       </c>
@@ -9561,7 +9771,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B31" s="3">
         <v>3.05</v>
       </c>
@@ -9569,7 +9779,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.6">
       <c r="B32" s="3">
         <v>3.12</v>
       </c>
@@ -9577,7 +9787,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B33" s="3">
         <v>3.2</v>
       </c>
@@ -9585,7 +9795,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B34" s="3">
         <v>3.4</v>
       </c>
@@ -9593,7 +9803,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B35" s="3">
         <v>3.6</v>
       </c>
@@ -9602,8 +9812,427 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L4:N4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD2ED8-406B-40DF-8DEE-CD62523502CD}">
+  <dimension ref="B3:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>675</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>505</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B5" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="8">
+        <v>462</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>385</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>390</v>
+      </c>
+      <c r="M5">
+        <v>360</v>
+      </c>
+      <c r="N5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>420</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>385</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>380</v>
+      </c>
+      <c r="M6">
+        <v>430</v>
+      </c>
+      <c r="N6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B7" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="C7" s="8">
+        <v>483</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2.21</v>
+      </c>
+      <c r="E7" s="8">
+        <v>383</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>430</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B8" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>480</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>382</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>460</v>
+      </c>
+      <c r="M8">
+        <v>570</v>
+      </c>
+      <c r="N8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B9" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="C9" s="8">
+        <v>489</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>381</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>620</v>
+      </c>
+      <c r="N9">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>490</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>380</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>650</v>
+      </c>
+      <c r="M10">
+        <v>850</v>
+      </c>
+      <c r="N10">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B11" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="C11" s="8">
+        <v>495</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.61</v>
+      </c>
+      <c r="E11" s="8">
+        <v>381</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11">
+        <v>400</v>
+      </c>
+      <c r="L11">
+        <v>960</v>
+      </c>
+      <c r="M11">
+        <v>1250</v>
+      </c>
+      <c r="N11">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B12" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="C12" s="8">
+        <v>500</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="E12" s="8">
+        <v>381</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12">
+        <v>600</v>
+      </c>
+      <c r="L12">
+        <v>1400</v>
+      </c>
+      <c r="M12">
+        <v>1800</v>
+      </c>
+      <c r="N12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B13" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>509</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>381</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13">
+        <v>800</v>
+      </c>
+      <c r="L13">
+        <v>1650</v>
+      </c>
+      <c r="M13">
+        <v>2300</v>
+      </c>
+      <c r="N13">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B14" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>519</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="E14" s="8">
+        <v>380</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <v>1850</v>
+      </c>
+      <c r="M14">
+        <v>2600</v>
+      </c>
+      <c r="N14">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B15" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>525</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3.12</v>
+      </c>
+      <c r="E15" s="8">
+        <v>380</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15">
+        <v>2000</v>
+      </c>
+      <c r="L15">
+        <v>3200</v>
+      </c>
+      <c r="M15">
+        <v>4100</v>
+      </c>
+      <c r="N15">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="B16" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>499</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>380</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16">
+        <v>2700</v>
+      </c>
+      <c r="L16">
+        <v>3850</v>
+      </c>
+      <c r="M16">
+        <v>4900</v>
+      </c>
+      <c r="N16">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B17" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>499</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="E17" s="8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B18" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="C18" s="8">
+        <v>500</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plasma.xlsx
+++ b/plasma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LATEX\gikadai\exp2\02-Plasma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamashinahotaka/Documents/gikadai/exp2/02-Plasma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1412644-8688-437C-9DF2-90217C9F4E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5AEF3-8D97-9845-B280-707971AE3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F684A428-29BD-A448-9984-AB13724C011E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{F684A428-29BD-A448-9984-AB13724C011E}"/>
   </bookViews>
   <sheets>
     <sheet name="plasma" sheetId="1" r:id="rId1"/>
@@ -217,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,16 +283,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -303,9 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +659,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1175,7 +1169,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1183,6 +1176,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1549,7 +1543,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1611,7 +1605,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1659,7 +1653,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1667,6 +1660,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2008,7 +2002,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2016,6 +2009,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2706,7 +2700,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2802,7 +2796,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2810,6 +2803,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3406,7 +3400,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3414,6 +3407,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3961,7 +3955,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4103,7 +4097,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4199,7 +4193,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4207,6 +4200,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8025,40 +8019,40 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1593 5801 8027,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379">1593 5801 8027,'-1'73'0,"0"-1"0,-2-4 0,5-17 0,12-34 0,2 4 0,5 4 0,5 0 0,2 2 0,3 1 0,1 0 0,-2 3 0,-1-1 0,1 0 0,-2 0 0,3-3 0,-3 0 0,1-1 0,-2-1 0,-1-2 0,1-1 0,-3 1 0,2-3 0,-1-1 0,-2-3 0,1 1 0,-1-1 0,0-3 0,1 2 0,0-4 0,-1 3 0,0-3 0,2 0 0,0-3 0,2 1 0,1 1 0,1 1 0,-2-1 0,3 0 0,0-2 0,0 3 0,1 0 0,-2 3 0,0-3 0,-2 2 0,2-2 0,1 0 0,-4-2 0,3-1 0,-3 0 0,1 0 0,-1 1 0,-1-1 0,4 0 0,0 0 0,1 1 0,2-1 0,3-3 0,5 1 0,0-4 0,4 0 0,0-1 0,5-1 0,-8 0 0,7 0 0,-1 0 0,1 0 0,0 0 0,-3 0 0,0 0 0,-3 0 0,-1-2 0,-2-1 0,-2-4 0,0 2 0,-4-2 0,0-2 0,-1 4 0,0-1 0,-1 1 0,-2-3 0,0-1 0,-3 4 0,3-1 0,-3 1 0,2-3 0,1-3 0,2 0 0,0-4 0,1 1 0,0-1 0,-1-2 0,-3 1 0,1-1 0,-1 0 0,1 1 0,0 2 0,-3 0 0,0 3 0,-2-2 0,2 3 0,0-1 0,0 2 0,-2 3 0,0 0 0,-2 1 0,5-1 0,-2 1 0,1-1 0,1-2 0,-1 0 0,3-1 0,1-2 0,-1 2 0,-1-2 0,0 1 0,-5 2 0,-1 0 0,-1 0 0,-1-1 0,-5 1 0,4 0 0,-1 0 0,1-2 0,-1-1 0,2-1 0,3-5 0,1 1 0,0-1 0,-3 3 0,-1 1 0,2-2 0,-2 2 0,1-1 0,-4 4 0,2-1 0,-4-1 0,-2 1 0,2 0 0,-1 3 0,-4 1 0,1 1 0,-2 0 0,-1 3 0,-1-3 0,-2 1 0,2 0 0,0-17 0,5-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-33751">3824 3326 8027,'-80'-46'0,"22"18"0,11 19 0,5 9 0,-1 0 0,-5 0 0,-2 1 0,-12 2 0,-5 2 0,-4 6 0,-3-1 0,-4 4 0,-1 3 0,1 2 0,0 5 0,0 0 0,-1 2 0,2 5 0,-2 0 0,5 5 0,3 2 0,3 2 0,5 2 0,5 0 0,10-4 0,-4 11 0,11-10 0,-4 6 0,11-9 0,1 4 0,2 1 0,3 3 0,5 0 0,4 9 0,5-1 0,7 3 0,4-3 0,2 0 0,1 4 0,10-6 0,5 3 0,11-6 0,10-3 0,3 1 0,5-2 0,2 1 0,5-2 0,7-1 0,2-2 0,9-1 0,0-2 0,6 2 0,1-4 0,2-1 0,6 0 0,2-6 0,6-3 0,-1-5 0,3-2 0,-1-4 0,-43-5 0,2-1 0,-4-1 0,0-1 0,5-1 0,-1-1 0,36 0 0,6-2 0,1-1 0,-1 0 0,-46 0 0,0-1 0,0 0 0,0-1 0,1-1 0,-1-2 0,46-9 0,-1-5 0,-2-3 0,1 0 0,-3-3 0,-3 1 0,-2-6 0,-8 0 0,0-3 0,-14 2 0,1-2 0,-15 4 0,7-4 0,-8 2 0,-3-2 0,-2 0 0,-5 0 0,-6-3 0,-6 0 0,-1 0 0,-3 0 0,-2-2 0,-7-4 0,-1-2 0,-3 2 0,-3-2 0,-1 2 0,-4 1 0,0-1 0,0 1 0,-8 1 0,-5 1 0,-5 0 0,-6 3 0,0-3 0,1 4 0,-2-4 0,0 3 0,-4 1 0,-2 2 0,-2-1 0,-3-2 0,0 7 0,-9-1 0,3 6 0,-7-1 0,-2 4 0,1 5 0,0 0 0,3 3 0,1 2 0,3-1 0,-7 1 0,-1-1 0,2 1 0,-1 2 0,4 1 0,-6 0 0,6 2 0,-4-1 0,7-1 0,2 0 0,-1-1 0,5 4 0,0-1 0,7-1 0,-1-1 0,4-2 0,2 4 0,0-1 0,1-1 0,1 0 0,0 3 0,2-2 0,0 4 0,-1 2 0,1 0 0,-1 1 0,0 0 0,4 0 0,0 0 0,2 0 0,5 0 0,-1 0 0,-9 3 0,-5 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30977">1694 4490 8027,'-3'52'0,"-2"-1"0,0 29 0,3-24 0,2-1 0,0 3 0,0 14 0,0-1 0,0 3 0,0 4 0,0 2 0,0 1 0,0-1 0,0-5 0,0-9 0,0 1 0,0-9 0,0 1 0,0-1 0,0-5 0,0-3 0,0-5 0,0-7 0,0-2 0,0-4 0,0-4 0,0-2 0,0-7 0,0 0 0,0-5 0,0-3 0,0-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 4 0,0 2 0,0 5 0,0 0 0,0 2 0,0-1 0,0 2 0,0-3 0,-1-1 0,-1-4 0,1-2 0,-2-4 0,3 1 0,0-1 0,0 0 0,0 0 0,3 4 0,1 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30069">5468 4614 8027,'8'69'0,"-1"-6"0,-7-20 0,0 3 0,0 11 0,0 2 0,0 2 0,0 0 0,0 2 0,-2-2 0,-2 2 0,0 1 0,-2 1 0,2-2 0,2-4 0,1-4 0,1-7 0,0 10 0,0-6 0,0 1 0,0-4 0,0-2 0,0-2 0,0-4 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0-1 0,0 0 0,0 0 0,0-2 0,0-6 0,0 1 0,0-7 0,0 2 0,0-7 0,0 1 0,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0 2 0,0-1 0,0 5 0,1-4 0,1-1 0,-1 0 0,2-2 0,-2 1 0,-1-1 0,0-2 0,0 0 0,0-4 0,0 1 0,0-2 0,0-1 0,0 4 0,0 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="14814">5657 4121 24575,'21'0'0,"31"0"0,-6 0 0,7 0 0,18 0 0,4 0 0,12 0 0,4 0 0,-28 0 0,1 1 0,0 0 0,3 2 0,0 1 0,0 1 0,-2 1 0,0 2 0,-2 0 0,26 8 0,-2 3 0,-9 1 0,-4 1 0,-14-3 0,-3 0 0,-8-1 0,-1-1 0,27 8 0,-10-8 0,-9-8 0,-1-5 0,1-3 0,0 0 0,3 0 0,0 0 0,0 0 0,1 0 0,-6 0 0,-5 0 0,-10 0 0,-9 0 0,-8 0 0,-13 0 0,-3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="16164">5565 6347 24575,'18'0'0,"29"0"0,47 0 0,-25 0 0,3 0 0,17 0 0,5 0-395,-23 0 1,3 0 0,0 0 394,3 0 0,3 0 0,-1 0 0,3 2 0,-1 0 0,0 1 0,-2 0 0,1 1 0,-3 0 0,-3 2 0,-1-1 0,-1 2 39,-7-1 0,-1 2 0,-1-2-39,27 3 0,-1 0 0,-7-1 0,-4 1 0,-7-2 0,-3 1 0,-5-3 0,-5 1 0,34 6 0,-23 0 886,-17 0-886,-17 1 180,-13-4-180,-8-3 0,-9-3 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21214">1884 1186 24575,'0'13'0,"0"29"0,0 37 0,0-24 0,0 3 0,0 12 0,0 2 0,0 5 0,0 2 0,0 7 0,0 2 0,0 8 0,0 3-182,0-28 1,0 1 0,0-1 181,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0 3 0,0 0 0,0-1 0,0-2 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0-1 0,0 0 0,0 23 0,0-3 0,0-5 0,0-3 0,0-12 0,0-4 0,0 36 0,0-23 0,0-14 0,0-15 544,0-9-544,0-11 0,0-8 0,1-8 0,0-6 0,1-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="22930">5545 1470 24575,'0'24'0,"0"68"0,0-16 0,0 9 0,0-12 0,0 4 0,0 3-669,0 10 0,0 3 0,0-1 669,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0-1 0,0-2 0,0 1 0,0-3 0,0 0 0,0-1 0,0-3 0,0-1 0,0-1 112,0-3 0,0-1 0,0-1-112,0 24 0,0-3 202,0-12 1,0-4-203,0-13 0,0-4 0,0 35 0,0-19 1017,0-16-1017,0-11 249,-2-10-249,-1-9 0,0-6 0,2-7 0,1-8 0,0-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="24747">6866 2664 24575,'0'16'0,"0"35"0,0 1 0,0 10 0,1 0 0,-1 6 0,-1 4 0,1 14 0,-2 6 0,0 2-575,0-16 0,0 3 1,1 1-1,-2 0 575,1 3 0,-1 1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,2 1 0,-1-1 0,1 1 0,0 0 0,0 1 0,0-2 0,1-2 0,0 0 0,0-1 0,0 0 0,1-3 0,-1 1 0,1-2 0,1 0-87,0 17 1,1-1-1,2-2 87,0-8 0,1-1 0,2-1 0,0-5 0,0-2 0,2-1-64,-1-5 0,1-2 0,-1-1 64,2 29 0,-1-2 0,-3-9 0,-1-3 0,-2-8 0,-2-2 828,-2-7 0,0-2-828,0-6 0,0-2 875,0 41-875,0-14 220,0-11-220,0-7 0,0-6 0,0 1 0,0 7 0,0 4 0,0-1 0,0-11 0,0-19 0,-2-17 0,2-12 0,-2-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="26047">6596 3870 24575,'9'27'0,"7"23"0,15 29 0,-11-30 0,1 0 0,19 39 0,0-15 0,-8-22 0,-4-19 0,-4-13 0,-1-9 0,2-5 0,2-5 0,5 0 0,4 0 0,10-10 0,13-22 0,12-29 0,-32 18 0,0-4 0,1-5 0,0-1 0,-6 2 0,-1 1 0,17-31 0,-15 26 0,-21 30 0,-5 13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27381">6489 7032 24575,'0'-9'0,"0"-11"0,8-29 0,12-29 0,-5 27 0,3-3 0,3-7 0,1 0 0,1 1 0,0 1 0,-3 6 0,-1 3 0,12-26 0,-12 32 0,-7 24 0,-4 12 0,6 6 0,8 2 0,7 0 0,5 0 0,-2 0 0,2 0 0,3 0 0,4 0 0,5 11 0,3 20 0,-1 26 0,-23-14 0,1 4 0,1 8 0,-2 2 0,3 6 0,1 1 0,2 2 0,1 0 0,0-3 0,0-2 0,-2-7 0,-2-4 0,21 29 0,-17-28 0,-17-28 0,-5-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29247">0 2079 24575,'10'0'0,"24"0"0,60 0 0,-35 0 0,9 0 0,3 0 0,19 0 0,6 0 0,3 0-812,-12 2 0,3 0 0,2 1 0,2 0 812,-16 0 0,4 1 0,-1-1 0,0 1 0,1 1 0,-1 0 0,2 1 0,-2 1 0,1 0 0,0 0 0,0 0 0,1 1 0,0 1 0,-1-1 0,-1 0 0,14 2 0,0-1 0,-1 0 0,-3 0-184,-4 0 1,-2 0-1,-1 0 1,-1-1 183,-4 0 0,-2 0 0,-1 0 0,0-1 0,19 3 0,-2 1 0,0-1-319,-1 0 0,1 1 0,-2 0 319,-4 1 0,-1 0 0,-2 1 0,-3 0 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 1-130,-9-1 0,0 0 0,-2-1 130,0-1 0,-1-1 0,-1-1 0,-4-2 0,1-1 0,-3 0 0,23 2 0,1-1 1029,-2 0 0,0 1-1029,-5 0 0,-2 1 779,-1 2 0,-2 0-779,-2 0 0,-3-1 577,-8-1 1,-1 0-578,-8-1 0,-2 0 514,31 2-514,-22-1 44,-15-2-44,-16-1 0,-9-2 0,-8-1 0,-5-1 0,2 0 0,-4 0 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="30530">6331 2001 24575,'-5'0'0,"-10"3"0,-16 12 0,-22 24 0,-22 20 0,34-23 0,-2 2 0,-2 0 0,1 0 0,4-5 0,2-1 0,-28 24 0,15-12 0,14-10 0,9-1 0,2 0 0,7-1 0,3-1 0,3-8 0,10-5 0,12 7 0,26 23 0,1-5 0,4 5 0,13 14 0,6 4 0,-16-18 0,3 0 0,-1 0 0,24 23 0,-2-4 0,-10-10 0,-4-5 0,-11-13 0,-4-3 0,10 12 0,-25-23 0,-14-14 0,-7-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="31930">1442 1477 24575,'0'22'0,"14"29"0,5-5 0,6 6 0,14 20 0,6 4 0,-11-20 0,3 2 0,1-2 0,2 2 0,2-2 0,-1-1 0,15 19 0,0-6 0,-6-12 0,-2-6 0,-7-7 0,-3-4 0,18 14 0,-17-16 0,-14-10 0,-12-7 0,-10-6 0,-18-6 0,-20 0 0,-26 4 0,16-3 0,-3 4 0,-11 7 0,-5 3 0,-13 9 0,-1 4 0,-5 3 0,-1 3 0,1 4 0,1 0 0,6-2 0,3-2 0,14-7 0,4-2 0,-24 18 0,35-20 0,26-14 0,12-8 0,4-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="34312">2390 1 24575,'0'39'0,"0"53"0,0-10 0,0 8 0,0-18 0,0 3 0,0 0-289,0 3 1,0 1-1,0-1 289,0-6 0,0 0 0,0-4 0,0 19 0,0-6 142,0-18 1,0-6-143,0 19 143,0-32-143,0-16 0,0-9 0,0-9 0,0-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="35646">2390 128 24575,'4'-4'0,"8"1"0,18 1 0,19 2 0,21 0 0,15-1 0,-37 3 0,0 3 0,2 5 0,0 3 0,-1 4 0,0 3 0,-5 5 0,-2 1 0,24 20 0,-19-7 0,-15-5 0,-8 0 0,-3 9 0,1 9 0,-1 10 0,-1 4 0,-2 3 0,-9-1 0,-4-2 0,-5-4 0,-4 0 0,-8 2 0,-11 2 0,-13 3 0,-10-1 0,-7-4 0,0-6 0,-1-7 0,1-8 0,1-8 0,-2-5 0,-2-10 0,-5-7 0,0-7 0,6-4 0,13-2 0,20 0 0,11 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="36831">3418 1146 24575,'0'5'0,"0"21"0,0 31 0,0 29 0,0-36 0,0 1 0,0 0 0,0 0 0,0 36 0,0-15 0,0-21 0,0-26 0,0-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38081">3398 969 24575,'17'0'0,"11"0"0,13 0 0,9 0 0,1 0 0,-2 0 0,-5 1 0,-11 6 0,-6 2 0,-9 5 0,-4 2 0,-6 4 0,-3 4 0,-3 5 0,-2 2 0,0 2 0,0-3 0,-4-4 0,-5-3 0,-6-4 0,-7 0 0,-7 1 0,-8 1 0,-4 2 0,-6 1 0,2 0 0,1-2 0,6-6 0,8-5 0,7-5-1696,9-4 0,7 0 0,2-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38912">4286 901 24575,'-2'0'0,"12"0"0,33-6 0,38-1 0,-27 2 0,3 0 0,6-1 0,1 2 0,-9 2 0,-2 0 0,31-1 0,-28 3 0,-34 0 0,-11 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39729">4405 1341 24575,'15'0'0,"13"0"0,25 0 0,14 0 0,1 0 0,-28 0 0,-17 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47245">5998 678 24575,'-4'32'0,"-5"19"0,-5 29 0,6-31 0,1 1 0,-3 49 0,5-10 0,3-20 0,2-16 0,0-12 0,6-7 0,10-5 0,10-3 0,7-4 0,1-6 0,-3-6 0,-1-6 0,0-4 0,2-1 0,4-7 0,2-11 0,0-11 0,-3-9 0,-5-3 0,-5-3 0,1-4 0,-3-4 0,-1-5 0,-4-1 0,-8 4 0,-6 4 0,-5 9 0,-5 5 0,-5 5 0,-7 4 0,-6 2 0,-2 4 0,-3-1 0,0 3 0,-1 1 0,2 2 0,3 3 0,6 4 0,4 2 0,2 4 0,0 2 0,-3 2 0,-2 0 0,-4 0 0,0-1 0,10 1 0,4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47996">6627 1314 24575,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="49978">7383 708 24575,'-12'0'0,"-5"-2"0,-9-2 0,-6-1 0,-4 0 0,0 2 0,2 1 0,1 2 0,0 0 0,0 7 0,-1 10 0,4 9 0,2 10 0,5 0 0,8 0 0,3-1 0,7-2 0,2 0 0,3-1 0,12 3 0,19 4 0,24 10 0,-18-19 0,4 2 0,3 4 0,1 2 0,-1 5 0,1 0 0,-4-2 0,-3 0 0,27 30 0,-20-18 0,-15-17 0,-13-9 0,-10-7 0,-6-1 0,-15 1 0,-15-2 0,-15-1 0,-8-5 0,-1-6 0,3-4 0,7-2 0,9-6 0,9-9 0,9-14 0,8-11 0,5-11 0,3-8 0,2-6 0,5-7 0,7 1 0,4 5 0,3 4 0,-1 10 0,1 0 0,-3 4 0,-4 3 0,-4 3 0,-6 6 0,-3 4 0,-1 2 0,0 4 0,-4 3 0,-7 4 0,-4 2 0,-3 3 0,9 7 0,2 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="52346">7843 1232 24575,'0'14'0,"0"20"0,0 19 0,0 14 0,0-1 0,0-16 0,0-16 0,0-16 0,0-4 0,0-1 0,0 1 0,0 1 0,0 1 0,0-5 0,0-6 0,0-12 0,2-14 0,4-14 0,8-23 0,5-19 0,1-12 0,1 0 0,-5 12 0,0 12 0,-3 13 0,0 12 0,-1 9 0,3 10 0,-3 7 0,0 5 0,0 4 0,-1 2 0,1 1 0,1 10 0,3 18 0,-2 19 0,-4 20 0,-2 8 0,-6 0 0,-2-3 0,0-10 0,0-12 0,0-13 0,0-12 0,0-16 0,0-11 0,0-15 0,0-13 0,2-10 0,3-10 0,0 0 0,3 4 0,0 7 0,2 6 0,2 3 0,2 3 0,4 2 0,7 2 0,3 0 0,2 5 0,-1 5 0,-3 4 0,-1 6 0,-2 3 0,1 2 0,-1 0 0,0 2 0,-2 10 0,-2 16 0,-5 22 0,-6 18 0,-4 6 0,-3-7 0,-1-16 0,0-17 0,0-18 0,0-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="54296">8897 1212 24575,'0'3'0,"0"19"0,0 28 0,0 38 0,0-33 0,0 2 0,0 1 0,0 0 0,0-3 0,0-3 0,0 28 0,0-22 0,0-16 0,0-15 0,0-13 0,4-26 0,9-37 0,3-44 0,-6 34 0,0-3 0,-1-2 0,0 2 0,-3 6 0,1 3 0,5-23 0,-2 30 0,-3 20 0,-1 15 0,0 6 0,4 3 0,3 8 0,4 18 0,2 17 0,-1 19 0,-3 10 0,-3 0 0,-5-2 0,-3-10 0,-2-13 0,-1-14 0,-1-12 0,0-16 0,2-20 0,5-30 0,7-27 0,5-17 0,5-3 0,-2 16 0,-1 22 0,-5 22 0,-4 16 0,-3 10 0,-2 4 0,4 3 0,2 11 0,4 19 0,4 26 0,-4 21 0,-5 4 0,-7-10 0,-5-18 0,0-16 0,0-18 0,0-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57046">8489 5377 24575,'0'21'0,"0"20"0,0 43 0,0-31 0,0 3 0,0 4 0,0-1 0,0-1 0,0-2 0,0 35 0,0-27 0,3-26 0,13-19 0,25-14 0,27-11 0,19-6 0,1-2 0,-19 0 0,-24 6 0,-26 5 0,-11 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57878">9182 5822 24575,'0'24'0,"0"34"0,0 28 0,0-30 0,0 2 0,0 2 0,0-1 0,0-6 0,0-2 0,0 38 0,0-30 0,0-22 0,0-12 0,0-14 0,0-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="58795">9182 5920 24575,'6'0'0,"4"0"0,7 0 0,4 0 0,8 0 0,6 0 0,6 3 0,6 6 0,-3 6 0,-9 3 0,-9 2 0,-10-2 0,-8-1 0,-5-1 0,-8 1 0,-11 2 0,-12 4 0,-12 1 0,-2-3 0,0-6 0,8-3 0,9-5 0,13-3 0,6-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="59661">9874 5621 24575,'25'0'0,"15"0"0,18 0 0,3 0 0,-15 0 0,-20 0 0,-14 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="60345">9936 5895 24575,'14'0'0,"12"0"0,21 0 0,7 0 0,-12 0 0,-16 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="63062">10887 5312 24575,'0'27'0,"0"39"0,0-9 0,0 7 0,0 16 0,0 3 0,0 7 0,0 1 0,0-4 0,0-2 0,0-16 0,0-4 0,0 30 0,0-42 0,0-36 0,0-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="65178">11407 5868 24575,'0'21'0,"0"25"0,0 25 0,0 18 0,0-6 0,0-17 0,0-19 0,0-18 0,0-11 0,0-5 0,0-8 0,3-14 0,6-17 0,8-17 0,13-14 0,4-7 0,2-2 0,-3 7 0,-7 17 0,-7 17 0,-5 16 0,-4 6 0,0 4 0,4 9 0,-2 15 0,-1 19 0,-4 16 0,-3 8 0,-3-2 0,-1-6 0,0-11 0,0-13 0,0-11 0,0-13 0,2-19 0,2-25 0,7-23 0,3-21 0,2-1 0,1 10 0,-3 15 0,-1 22 0,-3 11 0,1 8 0,3 5 0,1 3 0,4 2 0,6 1 0,6 2 0,5 7 0,4 12 0,-2 15 0,-5 13 0,-4 6 0,-10 1 0,-7-7 0,-5-11 0,-7-9 0,0-15 0,0-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="66728">12189 6003 24575,'0'8'0,"0"14"0,0 27 0,0 27 0,0 15 0,0-5 0,0-20 0,0-21 0,0-19 0,0-21 0,5-34 0,9-34 0,13-31 0,-10 42 0,0 0 0,18-38 0,-5 24 0,-8 26 0,-3 20 0,-1 10 0,0 6 0,0 3 0,3 10 0,3 14 0,2 19 0,-2 21 0,-8 11 0,-8 3 0,-5-6 0,-3-14 0,0-16 0,0-21 0,0-25 0,4-33 0,11-35 0,13-17 0,-10 43 0,2 2 0,20-28 0,-4 28 0,-2 21 0,-3 16 0,-1 15 0,-1 15 0,-4 16 0,-5 16 0,-4 6 0,-6 2 0,-5 4 0,-2-30 0,-3-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1728 5801 8027,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379">1728 5801 8027,'-1'73'0,"0"-1"0,-2-4 0,5-17 0,13-34 0,2 4 0,6 4 0,5 0 0,3 2 0,2 1 0,2 0 0,-3 3 0,0-1 0,0 0 0,-1 0 0,2-3 0,-2 0 0,0-1 0,-1-1 0,-2-2 0,1-1 0,-3 1 0,2-3 0,-1-1 0,-2-3 0,1 1 0,-1-1 0,0-3 0,1 2 0,0-4 0,-1 3 0,0-3 0,2 0 0,0-3 0,3 1 0,0 1 0,2 1 0,-3-1 0,3 0 0,1-2 0,-1 3 0,2 0 0,-2 3 0,-1-3 0,-2 2 0,3-2 0,0 0 0,-3-2 0,2-1 0,-3 0 0,1 0 0,0 1 0,-2-1 0,4 0 0,1 0 0,0 1 0,3-1 0,3-3 0,5 1 0,1-4 0,3 0 0,1-1 0,5-1 0,-8 0 0,7 0 0,-1 0 0,1 0 0,0 0 0,-3 0 0,0 0 0,-4 0 0,0-2 0,-3-1 0,-2-4 0,0 2 0,-4-2 0,0-2 0,-2 4 0,1-1 0,-1 1 0,-3-3 0,1-1 0,-4 4 0,3-1 0,-2 1 0,1-3 0,1-3 0,3 0 0,0-4 0,0 1 0,1-1 0,-1-2 0,-4 1 0,2-1 0,-2 0 0,1 1 0,1 2 0,-4 0 0,0 3 0,-2-2 0,2 3 0,1-1 0,-1 2 0,-2 3 0,0 0 0,-2 1 0,5-1 0,-2 1 0,1-1 0,2-2 0,-2 0 0,3-1 0,2-2 0,-2 2 0,0-2 0,-1 1 0,-5 2 0,-1 0 0,-1 0 0,-2-1 0,-4 1 0,3 0 0,0 0 0,0-2 0,0-1 0,2-1 0,3-5 0,1 1 0,0-1 0,-4 3 0,0 1 0,2-2 0,-2 2 0,0-1 0,-3 4 0,1-1 0,-3-1 0,-3 1 0,2 0 0,-1 3 0,-4 1 0,1 1 0,-2 0 0,-1 3 0,-2-3 0,-1 1 0,1 0 0,1-17 0,5-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-33751">4148 3326 8027,'-87'-46'0,"24"18"0,12 19 0,6 9 0,-2 0 0,-5 0 0,-2 1 0,-14 2 0,-4 2 0,-5 6 0,-3-1 0,-5 4 0,-1 3 0,2 2 0,-1 5 0,0 0 0,0 2 0,1 5 0,-2 0 0,6 5 0,3 2 0,3 2 0,6 2 0,5 0 0,11-4 0,-4 11 0,11-10 0,-4 6 0,13-9 0,0 4 0,2 1 0,4 3 0,5 0 0,4 9 0,6-1 0,7 3 0,5-3 0,2 0 0,1 4 0,11-6 0,5 3 0,12-6 0,11-3 0,4 1 0,5-2 0,1 1 0,7-2 0,7-1 0,2-2 0,10-1 0,-1-2 0,8 2 0,0-4 0,3-1 0,6 0 0,2-6 0,7-3 0,-1-5 0,3-2 0,-1-4 0,-47-5 0,2-1 0,-4-1 0,0-1 0,6-1 0,-2-1 0,40 0 0,6-2 0,1-1 0,-1 0 0,-50 0 0,0-1 0,0 0 0,0-1 0,1-1 0,-1-2 0,50-9 0,-1-5 0,-2-3 0,0 0 0,-2-3 0,-4 1 0,-2-6 0,-8 0 0,-1-3 0,-14 2 0,0-2 0,-16 4 0,8-4 0,-9 2 0,-4-2 0,-1 0 0,-6 0 0,-6-3 0,-7 0 0,-1 0 0,-3 0 0,-3-2 0,-7-4 0,-1-2 0,-3 2 0,-4-2 0,0 2 0,-5 1 0,0-1 0,0 1 0,-9 1 0,-5 1 0,-6 0 0,-6 3 0,0-3 0,1 4 0,-2-4 0,0 3 0,-4 1 0,-3 2 0,-2-1 0,-3-2 0,0 7 0,-10-1 0,4 6 0,-9-1 0,-1 4 0,1 5 0,0 0 0,3 3 0,1 2 0,3-1 0,-7 1 0,-1-1 0,1 1 0,0 2 0,4 1 0,-6 0 0,6 2 0,-4-1 0,7-1 0,3 0 0,-2-1 0,6 4 0,0-1 0,7-1 0,0-1 0,3-2 0,3 4 0,0-1 0,1-1 0,1 0 0,0 3 0,2-2 0,1 4 0,-2 2 0,1 0 0,-1 1 0,0 0 0,5 0 0,-1 0 0,3 0 0,5 0 0,-1 0 0,-10 3 0,-5 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30977">1837 4490 8027,'-3'52'0,"-2"-1"0,-1 29 0,4-24 0,2-1 0,0 3 0,0 14 0,0-1 0,0 3 0,0 4 0,0 2 0,0 1 0,0-1 0,0-5 0,0-9 0,0 1 0,0-9 0,0 1 0,0-1 0,0-5 0,0-3 0,0-5 0,0-7 0,0-2 0,0-4 0,0-4 0,0-2 0,0-7 0,0 0 0,0-5 0,0-3 0,0-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 4 0,0 2 0,0 5 0,0 0 0,0 2 0,0-1 0,0 2 0,0-3 0,-1-1 0,-1-4 0,1-2 0,-2-4 0,3 1 0,0-1 0,0 0 0,0 0 0,3 4 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30069">5931 4614 8027,'9'69'0,"-2"-6"0,-7-20 0,0 3 0,0 11 0,0 2 0,0 2 0,0 0 0,0 2 0,-2-2 0,-2 2 0,0 1 0,-3 1 0,3-2 0,2-4 0,0-4 0,2-7 0,0 10 0,0-6 0,0 1 0,0-4 0,0-2 0,0-2 0,0-4 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0-1 0,0 0 0,0 0 0,0-2 0,0-6 0,0 1 0,0-7 0,0 2 0,0-7 0,0 1 0,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0 2 0,0-1 0,0 5 0,2-4 0,0-1 0,-1 0 0,2-2 0,-2 1 0,-1-1 0,0-2 0,0 0 0,0-4 0,0 1 0,0-2 0,0-1 0,0 4 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="14814">6136 4121 24575,'23'0'0,"33"0"0,-6 0 0,8 0 0,19 0 0,4 0 0,13 0 0,5 0 0,-30 0 0,0 1 0,0 0 0,4 2 0,0 1 0,-1 1 0,-1 1 0,-1 2 0,-1 0 0,27 8 0,-1 3 0,-11 1 0,-4 1 0,-14-3 0,-5 0 0,-7-1 0,-2-1 0,29 8 0,-11-8 0,-9-8 0,-1-5 0,1-3 0,-1 0 0,4 0 0,0 0 0,0 0 0,1 0 0,-6 0 0,-6 0 0,-11 0 0,-9 0 0,-9 0 0,-14 0 0,-4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="16164">6036 6347 24575,'20'0'0,"31"0"0,51 0 0,-27 0 0,3 0 0,18 0 0,6 0-395,-25 0 1,4 0 0,-1 0 394,3 0 0,4 0 0,-1 0 0,3 2 0,-1 0 0,-1 1 0,-1 0 0,1 1 0,-4 0 0,-2 2 0,-2-1 0,-1 2 39,-7-1 0,-2 2 0,-1-2-39,30 3 0,-2 0 0,-7-1 0,-4 1 0,-8-2 0,-3 1 0,-6-3 0,-5 1 0,37 6 0,-25 0 886,-19 0-886,-18 1 180,-14-4-180,-9-3 0,-10-3 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21214">2044 1186 24575,'0'13'0,"0"29"0,0 37 0,0-24 0,0 3 0,0 12 0,0 2 0,0 5 0,0 2 0,0 7 0,0 2 0,0 8 0,0 3-182,0-28 1,0 1 0,0-1 181,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0 3 0,0 0 0,0-1 0,0-2 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0-1 0,0 0 0,0 23 0,0-3 0,0-5 0,0-3 0,0-12 0,0-4 0,0 36 0,0-23 0,0-14 0,0-15 544,0-9-544,0-11 0,0-8 0,1-8 0,0-6 0,1-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="22930">6015 1470 24575,'0'24'0,"0"68"0,0-16 0,0 9 0,0-12 0,0 4 0,0 3-669,0 10 0,0 3 0,0-1 669,0-4 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0-1 0,0-2 0,0 1 0,0-3 0,0 0 0,0-1 0,0-3 0,0-1 0,0-1 112,0-3 0,0-1 0,0-1-112,0 24 0,0-3 202,0-12 1,0-4-203,0-13 0,0-4 0,0 35 0,0-19 1017,0-16-1017,0-11 249,-3-10-249,0-9 0,0-6 0,2-7 0,1-8 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="24747">7448 2664 24575,'0'16'0,"0"35"0,0 1 0,0 10 0,1 0 0,-1 6 0,-1 4 0,1 14 0,-3 6 0,1 2-575,0-16 0,0 3 1,1 1-1,-2 0 575,0 3 0,0 1 0,1 1 0,-1-1 0,1 0 0,-2 0 0,3 1 0,-1-1 0,1 1 0,0 0 0,0 1 0,0-2 0,1-2 0,0 0 0,0-1 0,0 0 0,1-3 0,-1 1 0,1-2 0,1 0-87,0 17 1,1-1-1,3-2 87,-1-8 0,2-1 0,1-1 0,1-5 0,0-2 0,2-1-64,-2-5 0,2-2 0,-1-1 64,2 29 0,-1-2 0,-4-9 0,0-3 0,-3-8 0,-2-2 828,-2-7 0,0-2-828,0-6 0,0-2 875,0 41-875,0-14 220,0-11-220,0-7 0,0-6 0,0 1 0,0 7 0,0 4 0,0-1 0,0-11 0,0-19 0,-2-17 0,2-12 0,-2-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="26047">7155 3870 24575,'9'27'0,"9"23"0,15 29 0,-11-30 0,1 0 0,20 39 0,1-15 0,-10-22 0,-3-19 0,-5-13 0,-1-9 0,2-5 0,2-5 0,6 0 0,4 0 0,11-10 0,14-22 0,13-29 0,-35 18 0,0-4 0,2-5 0,-1-1 0,-6 2 0,-1 1 0,18-31 0,-16 26 0,-23 30 0,-5 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27381">7039 7032 24575,'0'-9'0,"0"-11"0,8-29 0,14-29 0,-6 27 0,4-3 0,3-7 0,0 0 0,2 1 0,0 1 0,-3 6 0,-1 3 0,12-26 0,-12 32 0,-8 24 0,-4 12 0,6 6 0,9 2 0,7 0 0,6 0 0,-2 0 0,2 0 0,3 0 0,4 0 0,6 11 0,3 20 0,-1 26 0,-25-14 0,2 4 0,0 8 0,-2 2 0,3 6 0,2 1 0,1 2 0,2 0 0,0-3 0,0-2 0,-3-7 0,-2-4 0,24 29 0,-20-28 0,-17-28 0,-7-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29247">0 2079 24575,'11'0'0,"26"0"0,65 0 0,-38 0 0,9 0 0,4 0 0,21 0 0,6 0 0,4 0-812,-14 2 0,4 0 0,1 1 0,3 0 812,-17 0 0,4 1 0,-1-1 0,0 1 0,1 1 0,-2 0 0,3 1 0,-2 1 0,1 0 0,0 0 0,0 0 0,1 1 0,0 1 0,-1-1 0,-1 0 0,15 2 0,0-1 0,-1 0 0,-3 0-184,-5 0 1,-2 0-1,-1 0 1,-1-1 183,-4 0 0,-2 0 0,-2 0 0,1-1 0,20 3 0,-2 1 0,-1-1-319,0 0 0,1 1 0,-2 0 319,-5 1 0,-1 0 0,-1 1 0,-5 0 0,1 1 0,-1-1 0,2 1 0,-1-1 0,0 1-130,-10-1 0,0 0 0,-2-1 130,0-1 0,-1-1 0,-2-1 0,-3-2 0,0-1 0,-2 0 0,24 2 0,1-1 1029,-2 0 0,0 1-1029,-5 0 0,-3 1 779,0 2 0,-3 0-779,-2 0 0,-3-1 577,-9-1 1,-1 0-578,-8-1 0,-3 0 514,34 2-514,-24-1 44,-16-2-44,-18-1 0,-9-2 0,-10-1 0,-4-1 0,2 0 0,-5 0 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="30530">6867 2001 24575,'-5'0'0,"-11"3"0,-18 12 0,-24 24 0,-23 20 0,37-23 0,-3 2 0,-2 0 0,1 0 0,5-5 0,2-1 0,-31 24 0,17-12 0,15-10 0,9-1 0,3 0 0,8-1 0,2-1 0,4-8 0,11-5 0,13 7 0,28 23 0,1-5 0,4 5 0,15 14 0,6 4 0,-18-18 0,4 0 0,-1 0 0,26 23 0,-3-4 0,-10-10 0,-4-5 0,-13-13 0,-4-3 0,12 12 0,-28-23 0,-16-14 0,-7-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="31930">1564 1477 24575,'0'22'0,"15"29"0,6-5 0,6 6 0,15 20 0,7 4 0,-12-20 0,3 2 0,1-2 0,3 2 0,1-2 0,0-1 0,16 19 0,-1-6 0,-5-12 0,-3-6 0,-8-7 0,-3-4 0,20 14 0,-19-16 0,-15-10 0,-12-7 0,-12-6 0,-19-6 0,-22 0 0,-29 4 0,19-3 0,-4 4 0,-12 7 0,-6 3 0,-13 9 0,-2 4 0,-5 3 0,-1 3 0,1 4 0,1 0 0,6-2 0,4-2 0,15-7 0,5-2 0,-27 18 0,38-20 0,29-14 0,12-8 0,5-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="34312">2592 1 24575,'0'39'0,"0"53"0,0-10 0,0 8 0,0-18 0,0 3 0,0 0-289,0 3 1,0 1-1,0-1 289,0-6 0,0 0 0,0-4 0,0 19 0,0-6 142,0-18 1,0-6-143,0 19 143,0-32-143,0-16 0,0-9 0,0-9 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="35646">2592 128 24575,'5'-4'0,"8"1"0,19 1 0,21 2 0,23 0 0,17-1 0,-41 3 0,0 3 0,2 5 0,0 3 0,-1 4 0,1 3 0,-7 5 0,-1 1 0,25 20 0,-20-7 0,-16-5 0,-9 0 0,-3 9 0,1 9 0,-1 10 0,-2 4 0,-1 3 0,-10-1 0,-5-2 0,-5-4 0,-4 0 0,-9 2 0,-12 2 0,-14 3 0,-11-1 0,-8-4 0,1-6 0,-2-7 0,2-8 0,0-8 0,-1-5 0,-3-10 0,-5-7 0,0-7 0,6-4 0,14-2 0,23 0 0,11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="36831">3708 1146 24575,'0'5'0,"0"21"0,0 31 0,0 29 0,0-36 0,0 1 0,0 0 0,0 0 0,0 36 0,0-15 0,0-21 0,0-26 0,0-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38081">3686 969 24575,'18'0'0,"13"0"0,13 0 0,10 0 0,2 0 0,-3 0 0,-5 1 0,-13 6 0,-5 2 0,-11 5 0,-4 2 0,-6 4 0,-4 4 0,-2 5 0,-3 2 0,0 2 0,0-3 0,-5-4 0,-5-3 0,-6-4 0,-8 0 0,-7 1 0,-9 1 0,-5 2 0,-6 1 0,3 0 0,0-2 0,7-6 0,8-5 0,8-5-1696,10-4 0,7 0 0,3-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38912">4649 901 24575,'-2'0'0,"13"0"0,35-6 0,42-1 0,-29 2 0,3 0 0,6-1 0,1 2 0,-9 2 0,-2 0 0,33-1 0,-31 3 0,-36 0 0,-12 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39729">4778 1341 24575,'16'0'0,"15"0"0,26 0 0,16 0 0,1 0 0,-31 0 0,-18 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47245">6506 678 24575,'-4'32'0,"-6"19"0,-5 29 0,6-31 0,1 1 0,-2 49 0,4-10 0,4-20 0,2-16 0,0-12 0,7-7 0,10-5 0,11-3 0,8-4 0,1-6 0,-4-6 0,0-6 0,-1-4 0,3-1 0,4-7 0,2-11 0,1-11 0,-4-9 0,-6-3 0,-5-3 0,2-4 0,-5-4 0,0-5 0,-4-1 0,-9 4 0,-7 4 0,-5 9 0,-6 5 0,-4 5 0,-9 4 0,-6 2 0,-2 4 0,-4-1 0,1 3 0,-2 1 0,3 2 0,3 3 0,6 4 0,5 2 0,2 4 0,0 2 0,-4 2 0,-1 0 0,-5 0 0,0-1 0,11 1 0,4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="47996">7188 1314 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="49978">8008 708 24575,'-13'0'0,"-5"-2"0,-10-2 0,-7-1 0,-4 0 0,0 2 0,2 1 0,1 2 0,0 0 0,1 7 0,-2 10 0,4 9 0,3 10 0,5 0 0,9 0 0,3-1 0,7-2 0,3 0 0,3-1 0,13 3 0,21 4 0,25 10 0,-19-19 0,5 2 0,3 4 0,0 2 0,0 5 0,1 0 0,-5-2 0,-2 0 0,28 30 0,-21-18 0,-17-17 0,-13-9 0,-12-7 0,-5-1 0,-18 1 0,-15-2 0,-17-1 0,-8-5 0,-2-6 0,4-4 0,7-2 0,11-6 0,8-9 0,11-14 0,8-11 0,6-11 0,3-8 0,2-6 0,6-7 0,7 1 0,5 5 0,2 4 0,0 10 0,1 0 0,-4 4 0,-3 3 0,-6 3 0,-5 6 0,-4 4 0,-1 2 0,0 4 0,-4 3 0,-8 4 0,-5 2 0,-2 3 0,9 7 0,2 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="52346">8507 1232 24575,'0'14'0,"0"20"0,0 19 0,0 14 0,0-1 0,0-16 0,0-16 0,0-16 0,0-4 0,0-1 0,0 1 0,0 1 0,0 1 0,0-5 0,0-6 0,0-12 0,2-14 0,5-14 0,8-23 0,6-19 0,0-12 0,2 0 0,-5 12 0,-1 12 0,-3 13 0,0 12 0,-1 9 0,3 10 0,-3 7 0,0 5 0,1 4 0,-3 2 0,2 1 0,2 10 0,2 18 0,-2 19 0,-4 20 0,-2 8 0,-7 0 0,-2-3 0,0-10 0,0-12 0,0-13 0,0-12 0,0-16 0,0-11 0,0-15 0,0-13 0,2-10 0,3-10 0,1 0 0,2 4 0,1 7 0,2 6 0,2 3 0,2 3 0,5 2 0,7 2 0,3 0 0,3 5 0,-2 5 0,-3 4 0,0 6 0,-4 3 0,3 2 0,-3 0 0,1 2 0,-2 10 0,-2 16 0,-6 22 0,-6 18 0,-5 6 0,-3-7 0,-1-16 0,0-17 0,0-18 0,0-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="54296">9651 1212 24575,'0'3'0,"0"19"0,0 28 0,0 38 0,0-33 0,0 2 0,0 1 0,0 0 0,0-3 0,0-3 0,0 28 0,0-22 0,0-16 0,0-15 0,0-13 0,4-26 0,10-37 0,3-44 0,-6 34 0,0-3 0,-1-2 0,0 2 0,-4 6 0,2 3 0,5-23 0,-2 30 0,-4 20 0,0 15 0,-1 6 0,5 3 0,3 8 0,5 18 0,1 17 0,0 19 0,-4 10 0,-3 0 0,-5-2 0,-4-10 0,-2-13 0,-1-14 0,-1-12 0,0-16 0,2-20 0,6-30 0,7-27 0,6-17 0,5-3 0,-2 16 0,-2 22 0,-4 22 0,-5 16 0,-3 10 0,-3 4 0,5 3 0,2 11 0,5 19 0,3 26 0,-3 21 0,-6 4 0,-8-10 0,-5-18 0,0-16 0,0-18 0,0-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57046">9208 5377 24575,'0'21'0,"0"20"0,0 43 0,0-31 0,0 3 0,0 4 0,0-1 0,0-1 0,0-2 0,0 35 0,0-27 0,3-26 0,15-19 0,26-14 0,30-11 0,20-6 0,2-2 0,-21 0 0,-27 6 0,-27 5 0,-12 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="57878">9960 5822 24575,'0'24'0,"0"34"0,0 28 0,0-30 0,0 2 0,0 2 0,0-1 0,0-6 0,0-2 0,0 38 0,0-30 0,0-22 0,0-12 0,0-14 0,0-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="58795">9960 5920 24575,'6'0'0,"5"0"0,8 0 0,3 0 0,10 0 0,6 0 0,6 3 0,7 6 0,-3 6 0,-10 3 0,-10 2 0,-11-2 0,-8-1 0,-6-1 0,-8 1 0,-12 2 0,-14 4 0,-12 1 0,-3-3 0,1-6 0,8-3 0,10-5 0,14-3 0,6-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="59661">10710 5621 24575,'27'0'0,"17"0"0,19 0 0,3 0 0,-16 0 0,-22 0 0,-15 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="60345">10778 5895 24575,'15'0'0,"13"0"0,23 0 0,8 0 0,-14 0 0,-17 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="63062">11809 5312 24575,'0'27'0,"0"39"0,0-9 0,0 7 0,0 16 0,0 3 0,0 7 0,0 1 0,0-4 0,0-2 0,0-16 0,0-4 0,0 30 0,0-42 0,0-36 0,0-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="65178">12373 5868 24575,'0'21'0,"0"25"0,0 25 0,0 18 0,0-6 0,0-17 0,0-19 0,0-18 0,0-11 0,0-5 0,0-8 0,3-14 0,7-17 0,9-17 0,13-14 0,5-7 0,2-2 0,-3 7 0,-8 17 0,-7 17 0,-6 16 0,-4 6 0,0 4 0,4 9 0,-2 15 0,-1 19 0,-5 16 0,-2 8 0,-4-2 0,-1-6 0,0-11 0,0-13 0,0-11 0,0-13 0,2-19 0,2-25 0,8-23 0,3-21 0,3-1 0,0 10 0,-3 15 0,-1 22 0,-3 11 0,1 8 0,3 5 0,2 3 0,3 2 0,7 1 0,7 2 0,5 7 0,4 12 0,-1 15 0,-7 13 0,-3 6 0,-11 1 0,-8-7 0,-6-11 0,-7-9 0,0-15 0,0-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="66728">13221 6003 24575,'0'8'0,"0"14"0,0 27 0,0 27 0,0 15 0,0-5 0,0-20 0,0-21 0,0-19 0,0-21 0,6-34 0,9-34 0,14-31 0,-10 42 0,-1 0 0,20-38 0,-5 24 0,-9 26 0,-4 20 0,0 10 0,-1 6 0,1 3 0,3 10 0,3 14 0,2 19 0,-2 21 0,-9 11 0,-8 3 0,-6-6 0,-3-14 0,0-16 0,0-21 0,0-25 0,4-33 0,13-35 0,13-17 0,-10 43 0,1 2 0,23-28 0,-5 28 0,-2 21 0,-4 16 0,0 15 0,-2 15 0,-4 16 0,-5 16 0,-5 6 0,-6 2 0,-5 4 0,-3-30 0,-3-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8381,34 +8375,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93590E98-52E1-0141-AEAD-7121020CBC35}">
   <dimension ref="B1:AA61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="12.84375" customWidth="1"/>
-    <col min="3" max="3" width="12.15234375" customWidth="1"/>
-    <col min="4" max="4" width="10.15234375" customWidth="1"/>
-    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.3046875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8428,11 +8422,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:25">
       <c r="B3">
         <v>-147.30000000000001</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>-0.21199999999999999</v>
       </c>
       <c r="D3" s="5">
@@ -8440,7 +8434,7 @@
         <v>-2.12E-2</v>
       </c>
       <c r="E3">
-        <f>0.0000002*B3+0.000004</f>
+        <f t="shared" ref="E3:E33" si="0">0.0000002*B3+0.000004</f>
         <v>-2.5460000000000004E-5</v>
       </c>
       <c r="F3">
@@ -8451,7 +8445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:25">
       <c r="B4">
         <v>-125.3</v>
       </c>
@@ -8459,35 +8453,35 @@
         <v>-0.1918</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D35" si="0">(C4/10000)*1000</f>
+        <f t="shared" ref="D4:D33" si="1">(C4/10000)*1000</f>
         <v>-1.9179999999999999E-2</v>
       </c>
       <c r="E4">
-        <f>0.0000002*B4+0.000004</f>
+        <f t="shared" si="0"/>
         <v>-2.1059999999999998E-5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="1">E4-D4</f>
+        <f t="shared" ref="F4:F7" si="2">E4-D4</f>
         <v>1.9158939999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:25">
       <c r="B5">
         <v>-100.9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>-0.158</v>
       </c>
       <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>-1.5800000000000002E-2</v>
-      </c>
-      <c r="E5">
-        <f>0.0000002*B5+0.000004</f>
         <v>-1.6180000000000001E-5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.578382E-2</v>
       </c>
       <c r="Q5">
@@ -8501,7 +8495,7 @@
         <v>-2.12E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:25">
       <c r="B6" s="3">
         <v>-74.8</v>
       </c>
@@ -8509,15 +8503,15 @@
         <v>-0.1085</v>
       </c>
       <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.085E-2</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>-1.085E-2</v>
-      </c>
-      <c r="E6">
-        <f>0.0000002*B6+0.000004</f>
         <v>-1.096E-5</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0839039999999999E-2</v>
       </c>
       <c r="Q6">
@@ -8531,23 +8525,23 @@
         <v>-1.9179999999999999E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:25">
       <c r="B7" s="3">
         <v>-49.7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>-2.8500000000000001E-2</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.8500000000000001E-3</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>-2.8500000000000001E-3</v>
-      </c>
-      <c r="E7">
-        <f>0.0000002*B7+0.000004</f>
         <v>-5.9399999999999999E-6</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8440600000000003E-3</v>
       </c>
       <c r="Q7">
@@ -8561,7 +8555,7 @@
         <v>-1.5800000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:25">
       <c r="B8" s="3">
         <v>-40.4</v>
       </c>
@@ -8569,11 +8563,11 @@
         <v>0.15609999999999999</v>
       </c>
       <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5609999999999997E-2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>1.5609999999999997E-2</v>
-      </c>
-      <c r="E8">
-        <f>0.0000002*B8+0.000004</f>
         <v>-4.0799999999999991E-6</v>
       </c>
       <c r="F8">
@@ -8591,23 +8585,23 @@
         <v>-1.0849999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:25">
       <c r="B9" s="3">
         <v>-35.1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>0.437</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.3699999999999996E-2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>4.3699999999999996E-2</v>
-      </c>
-      <c r="E9">
-        <f>0.0000002*B9+0.000004</f>
         <v>-3.0199999999999999E-6</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F33" si="2">E9+D9</f>
+        <f t="shared" ref="F9:F33" si="3">E9+D9</f>
         <v>4.3696979999999996E-2</v>
       </c>
       <c r="Q9">
@@ -8621,7 +8615,7 @@
         <v>-2.8500000000000002E-6</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:25">
       <c r="B10" s="3">
         <v>-29.5</v>
       </c>
@@ -8629,15 +8623,15 @@
         <v>0.9</v>
       </c>
       <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E10">
-        <f>0.0000002*B10+0.000004</f>
         <v>-1.8999999999999996E-6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9998100000000011E-2</v>
       </c>
       <c r="S10">
@@ -8645,103 +8639,103 @@
         <v>-1.3976000000000003E-5</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:25">
       <c r="B11" s="3">
         <v>-25.1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>1.706</v>
       </c>
       <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1706</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.1706</v>
-      </c>
-      <c r="E11">
-        <f>0.0000002*B11+0.000004</f>
         <v>-1.0200000000000004E-6</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17059898000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:25">
       <c r="B12" s="3">
         <v>-19.399999999999999</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>2.97</v>
       </c>
       <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="E12">
-        <f>0.0000002*B12+0.000004</f>
         <v>1.2000000000000055E-7</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29700011999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:25">
       <c r="B13">
         <v>-15.06</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>5.09</v>
       </c>
       <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="E13">
-        <f>0.0000002*B13+0.000004</f>
         <v>9.8799999999999969E-7</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50900098800000004</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:25">
       <c r="B14" s="5">
         <v>-9.7799999999999994</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>8.8699999999999992</v>
       </c>
       <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8869999999999999</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.8869999999999999</v>
-      </c>
-      <c r="E14">
-        <f>0.0000002*B14+0.000004</f>
         <v>2.0439999999999998E-6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88700204399999993</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:25">
       <c r="B15" s="5">
         <v>-7.94</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>24.7</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>2.4699999999999998</v>
-      </c>
-      <c r="E15">
-        <f>0.0000002*B15+0.000004</f>
         <v>2.4119999999999999E-6</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4700024119999999</v>
       </c>
       <c r="Q15" t="s">
@@ -8751,23 +8745,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:25">
       <c r="B16" s="5">
         <v>-6.91</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>37.1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7100000000000004</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>3.7100000000000004</v>
-      </c>
-      <c r="E16">
-        <f>0.0000002*B16+0.000004</f>
         <v>2.6179999999999998E-6</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7100026180000003</v>
       </c>
       <c r="Q16">
@@ -8778,158 +8772,158 @@
         <v>-7.0253638298618748</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:18">
       <c r="B17" s="5">
         <v>-5.01</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>44.3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.43</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.43</v>
-      </c>
-      <c r="E17">
-        <f>0.0000002*B17+0.000004</f>
         <v>2.9979999999999999E-6</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.430002998</v>
       </c>
       <c r="Q17">
         <v>2.4724119999999998E-3</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17:R21" si="3">LN(Q17)</f>
+        <f t="shared" ref="R17:R21" si="4">LN(Q17)</f>
         <v>-6.002561086607372</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:18">
       <c r="B18" s="5">
         <v>-2.08</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>55.7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>5.57</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>5.57</v>
-      </c>
-      <c r="E18">
-        <f>0.0000002*B18+0.000004</f>
         <v>3.5839999999999999E-6</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5700035840000002</v>
       </c>
       <c r="Q18">
         <v>3.712618E-3</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.5960179908466516</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:18">
       <c r="B19">
         <v>-1.1879999999999999</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>59.4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>5.94</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>5.94</v>
-      </c>
-      <c r="E19">
-        <f>0.0000002*B19+0.000004</f>
         <v>3.7623999999999998E-6</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9400037624000008</v>
       </c>
       <c r="Q19">
         <v>4.4329979999999996E-3</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.4186791743810643</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:18">
       <c r="B20" s="5">
         <v>4.8</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>65.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>6.5500000000000007</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.5500000000000007</v>
-      </c>
-      <c r="E20">
-        <f>0.0000002*B20+0.000004</f>
         <v>4.9599999999999999E-6</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5500049600000008</v>
       </c>
       <c r="Q20">
         <v>5.5735840000000004E-3</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.1897169849285296</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:18">
       <c r="B21">
         <v>10.35</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>67.3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7299999999999995</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>6.7299999999999995</v>
-      </c>
-      <c r="E21">
-        <f>0.0000002*B21+0.000004</f>
         <v>6.0699999999999995E-6</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.73000607</v>
       </c>
       <c r="Q21">
         <v>5.9437624000000001E-3</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.1254129454477235</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:18">
       <c r="B22">
         <v>15.14</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>68.3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>6.83</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>6.83</v>
-      </c>
-      <c r="E22">
-        <f>0.0000002*B22+0.000004</f>
         <v>7.0279999999999995E-6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8300070279999998</v>
       </c>
       <c r="Q22">
@@ -8940,230 +8934,230 @@
         <v>-5.0275332639971442</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:18">
       <c r="B23" s="3">
         <v>20.2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>68.2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>6.82</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>6.82</v>
-      </c>
-      <c r="E23">
-        <f>0.0000002*B23+0.000004</f>
         <v>8.0399999999999993E-6</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8200080400000003</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:18">
       <c r="B24" s="3">
         <v>25.2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>68.900000000000006</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8900000000000006</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>6.8900000000000006</v>
-      </c>
-      <c r="E24">
-        <f>0.0000002*B24+0.000004</f>
         <v>9.0399999999999998E-6</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8900090400000007</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:18">
       <c r="B25" s="3">
         <v>50.2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>69.8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>6.98</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>6.98</v>
-      </c>
-      <c r="E25">
-        <f>0.0000002*B25+0.000004</f>
         <v>1.4040000000000001E-5</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9800140400000004</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:18">
       <c r="B26" s="3">
         <v>75</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>69.900000000000006</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>6.99</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-      <c r="E26">
-        <f>0.0000002*B26+0.000004</f>
         <v>1.8999999999999998E-5</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9900190000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:18">
       <c r="B27">
         <v>100.3</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>70</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <f>0.0000002*B27+0.000004</f>
         <v>2.4059999999999997E-5</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0000240600000003</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:18">
       <c r="B28">
         <v>124.9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>70.2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="E28">
-        <f>0.0000002*B28+0.000004</f>
         <v>2.898E-5</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0200289800000002</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.6">
-      <c r="B29" s="7">
+    <row r="29" spans="2:18">
+      <c r="B29" s="6">
         <v>150</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>70.3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0299999999999994</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>7.0299999999999994</v>
-      </c>
-      <c r="E29">
-        <f>0.0000002*B29+0.000004</f>
         <v>3.4E-5</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0300339999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:18">
       <c r="B30">
         <v>175.1</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>70.400000000000006</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>7.04</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>7.04</v>
-      </c>
-      <c r="E30">
-        <f>0.0000002*B30+0.000004</f>
         <v>3.9020000000000002E-5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.04003902</v>
       </c>
       <c r="R30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.6">
-      <c r="B31" s="7">
+    <row r="31" spans="2:18">
+      <c r="B31" s="6">
         <v>200</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>70.5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>7.05</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>7.05</v>
-      </c>
-      <c r="E31">
-        <f>0.0000002*B31+0.000004</f>
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0500439999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.6">
-      <c r="B32" s="7">
+    <row r="32" spans="2:18">
+      <c r="B32" s="6">
         <v>225</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>70.599999999999994</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>7.06</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
-        <v>7.06</v>
-      </c>
-      <c r="E32">
-        <f>0.0000002*B32+0.000004</f>
         <v>4.8999999999999998E-5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0600489999999994</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="7">
+    <row r="33" spans="2:6">
+      <c r="B33" s="6">
         <v>250</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>70.8</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0799999999999992</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
-        <v>7.0799999999999992</v>
-      </c>
-      <c r="E33">
-        <f>0.0000002*B33+0.000004</f>
         <v>5.3999999999999998E-5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0800539999999996</v>
       </c>
     </row>
-    <row r="61" spans="27:27" x14ac:dyDescent="0.6">
+    <row r="61" spans="27:27">
       <c r="AA61" s="1"/>
     </row>
   </sheetData>
@@ -9180,22 +9174,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20CEB1-46B0-934B-BC66-43FA29190160}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="14.84375" customWidth="1"/>
-    <col min="3" max="3" width="13.53515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:18">
       <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -9206,7 +9200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:18">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -9217,7 +9211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:18">
       <c r="E4" t="s">
         <v>17</v>
       </c>
@@ -9227,13 +9221,13 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -9256,7 +9250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:18">
       <c r="B6" s="3">
         <v>0.1</v>
       </c>
@@ -9300,7 +9294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:18">
       <c r="B7">
         <v>0.35</v>
       </c>
@@ -9344,7 +9338,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:18">
       <c r="B8" s="3">
         <v>0.4</v>
       </c>
@@ -9379,7 +9373,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:18">
       <c r="B9">
         <v>0.49</v>
       </c>
@@ -9411,7 +9405,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:18">
       <c r="B10" s="3">
         <v>0.6</v>
       </c>
@@ -9443,7 +9437,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:18">
       <c r="B11">
         <v>0.72</v>
       </c>
@@ -9475,7 +9469,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:18">
       <c r="B12" s="3">
         <v>0.8</v>
       </c>
@@ -9507,7 +9501,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:18">
       <c r="B13">
         <v>0.91</v>
       </c>
@@ -9539,7 +9533,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:18">
       <c r="B14" s="3">
         <v>1.02</v>
       </c>
@@ -9571,7 +9565,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:18">
       <c r="B15">
         <v>1.1200000000000001</v>
       </c>
@@ -9603,7 +9597,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:18">
       <c r="B16" s="3">
         <v>1.2</v>
       </c>
@@ -9635,7 +9629,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:18">
       <c r="B17" s="3">
         <v>1.3</v>
       </c>
@@ -9667,7 +9661,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:18">
       <c r="B18" s="3">
         <v>1.5</v>
       </c>
@@ -9675,7 +9669,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:18">
       <c r="B19" s="3">
         <v>1.6</v>
       </c>
@@ -9683,7 +9677,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:18">
       <c r="B20" s="3">
         <v>1.7</v>
       </c>
@@ -9691,7 +9685,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:18">
       <c r="B21" s="3">
         <v>1.8</v>
       </c>
@@ -9699,7 +9693,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:18">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -9707,7 +9701,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:18">
       <c r="B23" s="3">
         <v>2.1</v>
       </c>
@@ -9715,7 +9709,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:18">
       <c r="B24" s="3">
         <v>2.21</v>
       </c>
@@ -9723,7 +9717,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:18">
       <c r="B25" s="3">
         <v>0.3</v>
       </c>
@@ -9731,7 +9725,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:18">
       <c r="B26" s="3">
         <v>2.4</v>
       </c>
@@ -9739,7 +9733,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:18">
       <c r="B27" s="3">
         <v>2.5</v>
       </c>
@@ -9747,7 +9741,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:18">
       <c r="B28" s="3">
         <v>2.61</v>
       </c>
@@ -9755,7 +9749,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:18">
       <c r="B29" s="3">
         <v>2.75</v>
       </c>
@@ -9763,7 +9757,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:18">
       <c r="B30" s="3">
         <v>2.9</v>
       </c>
@@ -9771,7 +9765,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:18">
       <c r="B31" s="3">
         <v>3.05</v>
       </c>
@@ -9779,7 +9773,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:18">
       <c r="B32" s="3">
         <v>3.12</v>
       </c>
@@ -9787,7 +9781,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:3">
       <c r="B33" s="3">
         <v>3.2</v>
       </c>
@@ -9795,7 +9789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:3">
       <c r="B34" s="3">
         <v>3.4</v>
       </c>
@@ -9803,7 +9797,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:3">
       <c r="B35" s="3">
         <v>3.6</v>
       </c>
@@ -9829,38 +9823,38 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B4" s="9">
+    <row r="4" spans="2:14">
+      <c r="B4" s="8">
         <v>0.1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>675</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1.8</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>505</v>
       </c>
       <c r="K4" t="s">
@@ -9876,20 +9870,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B5" s="8">
+    <row r="5" spans="2:14">
+      <c r="B5" s="7">
         <v>0.35</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>462</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>385</v>
       </c>
-      <c r="J5" s="11"/>
       <c r="K5">
         <v>20</v>
       </c>
@@ -9903,20 +9896,19 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B6" s="9">
+    <row r="6" spans="2:14">
+      <c r="B6" s="8">
         <v>0.4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>420</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2.1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>385</v>
       </c>
-      <c r="J6" s="11"/>
       <c r="K6">
         <v>40</v>
       </c>
@@ -9930,20 +9922,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B7" s="8">
+    <row r="7" spans="2:14">
+      <c r="B7" s="7">
         <v>0.49</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>483</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2.21</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>383</v>
       </c>
-      <c r="J7" s="11"/>
       <c r="K7">
         <v>60</v>
       </c>
@@ -9957,20 +9948,19 @@
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B8" s="9">
+    <row r="8" spans="2:14">
+      <c r="B8" s="8">
         <v>0.6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>480</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>382</v>
       </c>
-      <c r="J8" s="11"/>
       <c r="K8">
         <v>80</v>
       </c>
@@ -9984,20 +9974,19 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B9" s="8">
+    <row r="9" spans="2:14">
+      <c r="B9" s="7">
         <v>0.72</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>489</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2.4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>381</v>
       </c>
-      <c r="J9" s="11"/>
       <c r="K9">
         <v>100</v>
       </c>
@@ -10011,20 +10000,19 @@
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B10" s="9">
+    <row r="10" spans="2:14">
+      <c r="B10" s="8">
         <v>0.8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>490</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>380</v>
       </c>
-      <c r="J10" s="11"/>
       <c r="K10">
         <v>200</v>
       </c>
@@ -10038,20 +10026,19 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B11" s="8">
+    <row r="11" spans="2:14">
+      <c r="B11" s="7">
         <v>0.91</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>495</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2.61</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>381</v>
       </c>
-      <c r="J11" s="11"/>
       <c r="K11">
         <v>400</v>
       </c>
@@ -10065,20 +10052,19 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B12" s="9">
+    <row r="12" spans="2:14">
+      <c r="B12" s="8">
         <v>1.02</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>500</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>2.75</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>381</v>
       </c>
-      <c r="J12" s="11"/>
       <c r="K12">
         <v>600</v>
       </c>
@@ -10092,20 +10078,19 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B13" s="8">
+    <row r="13" spans="2:14">
+      <c r="B13" s="7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>509</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>2.9</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>381</v>
       </c>
-      <c r="J13" s="11"/>
       <c r="K13">
         <v>800</v>
       </c>
@@ -10119,20 +10104,19 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B14" s="9">
+    <row r="14" spans="2:14">
+      <c r="B14" s="8">
         <v>1.2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>519</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>3.05</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>380</v>
       </c>
-      <c r="J14" s="11"/>
       <c r="K14">
         <v>1000</v>
       </c>
@@ -10146,20 +10130,19 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B15" s="9">
+    <row r="15" spans="2:14">
+      <c r="B15" s="8">
         <v>1.3</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>525</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>3.12</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>380</v>
       </c>
-      <c r="J15" s="11"/>
       <c r="K15">
         <v>2000</v>
       </c>
@@ -10173,20 +10156,19 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.6">
-      <c r="B16" s="9">
+    <row r="16" spans="2:14">
+      <c r="B16" s="8">
         <v>1.5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>499</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>3.2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>380</v>
       </c>
-      <c r="J16" s="11"/>
       <c r="K16">
         <v>2700</v>
       </c>
@@ -10200,31 +10182,31 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B17" s="9">
+    <row r="17" spans="2:5">
+      <c r="B17" s="8">
         <v>1.6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>499</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>3.4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B18" s="9">
+    <row r="18" spans="2:5">
+      <c r="B18" s="8">
         <v>1.7</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>500</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>3.6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>380</v>
       </c>
     </row>

--- a/plasma.xlsx
+++ b/plasma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamashinahotaka/Documents/gikadai/exp2/02-Plasma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5AEF3-8D97-9845-B280-707971AE3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA91356-F9B8-964D-B156-CC2FE6AF301A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{F684A428-29BD-A448-9984-AB13724C011E}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" activeTab="1" xr2:uid="{F684A428-29BD-A448-9984-AB13724C011E}"/>
   </bookViews>
   <sheets>
     <sheet name="plasma" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>vp</t>
     <phoneticPr fontId="1"/>
@@ -67,13 +67,6 @@
   </si>
   <si>
     <t>Vip(R=10e3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ip求めた</t>
-    <rPh sb="2" eb="3">
-      <t>モトメ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -211,15 +204,157 @@
   <si>
     <t>気圧 p[Pa]</t>
   </si>
+  <si>
+    <t>Ii求めた</t>
+    <rPh sb="2" eb="3">
+      <t>モトメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器名</t>
+    <rPh sb="0" eb="3">
+      <t>キキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーカー名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアル番号/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高電圧電源</t>
+    <rPh sb="0" eb="3">
+      <t>コウデンアツハッセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直流安定化電源</t>
+    <rPh sb="0" eb="7">
+      <t>チョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力メータ</t>
+    <rPh sb="0" eb="2">
+      <t>アツリョクメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタルマルチメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HAR-6P50</t>
+  </si>
+  <si>
+    <t>119445L</t>
+  </si>
+  <si>
+    <t>DG0350-0.5</t>
+  </si>
+  <si>
+    <t>TAKASAGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATSUSADA Precision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANELVA</t>
+  </si>
+  <si>
+    <t>M-601GC</t>
+  </si>
+  <si>
+    <t>油拡散ポンプ</t>
+    <rPh sb="0" eb="3">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ULVAC</t>
+  </si>
+  <si>
+    <t>G-50D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ULTIMATE PRES. 1x10^-3Torr 
+Frequency 50Hz 
+PUMPING Speed.50L/min 
+oil cap.270mL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOKOGAWA ELECTRIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直流電圧計</t>
+    <rPh sb="0" eb="5">
+      <t>チョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直流電流計</t>
+    <rPh sb="0" eb="1">
+      <t>チョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HV-10502</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YUTAKA ELECTRIC MFG.</t>
+  </si>
+  <si>
+    <t>INPUT100V 2 A  OUTPUT10 KV 5mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pd</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -270,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +435,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8375,8 +8522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93590E98-52E1-0141-AEAD-7121020CBC35}">
   <dimension ref="B1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
@@ -8416,10 +8563,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:25">
@@ -8437,7 +8584,7 @@
         <f t="shared" ref="E3:E33" si="0">0.0000002*B3+0.000004</f>
         <v>-2.5460000000000004E-5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <f>E3-D3</f>
         <v>2.1174539999999999E-2</v>
       </c>
@@ -8739,7 +8886,7 @@
         <v>2.4700024119999999</v>
       </c>
       <c r="Q15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>4</v>
@@ -9094,7 +9241,7 @@
         <v>7.04003902</v>
       </c>
       <c r="R30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -9174,8 +9321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20CEB1-46B0-934B-BC66-43FA29190160}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
@@ -9186,59 +9333,67 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:18">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -9247,6 +9402,18 @@
         <v>5</v>
       </c>
       <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
         <v>7</v>
       </c>
     </row>
@@ -9264,10 +9431,10 @@
         <v>723</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
       <c r="K6">
         <v>20</v>
@@ -9280,6 +9447,9 @@
       </c>
       <c r="N6">
         <v>430</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
       </c>
       <c r="P6">
         <f>$L$5*K6</f>
@@ -9308,10 +9478,10 @@
         <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>40</v>
@@ -9325,16 +9495,19 @@
       <c r="N7">
         <v>500</v>
       </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
       <c r="P7">
-        <f t="shared" ref="P7:P17" si="0">$L$5*K7</f>
+        <f>$L$5*K7</f>
         <v>120</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q17" si="1">M$5*K7</f>
+        <f>M$5*K7</f>
         <v>200</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R17" si="2">N$5*K7</f>
+        <f t="shared" ref="R7:R17" si="0">N$5*K7</f>
         <v>280</v>
       </c>
     </row>
@@ -9346,7 +9519,7 @@
         <v>420</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>60</v>
@@ -9360,16 +9533,19 @@
       <c r="N8">
         <v>580</v>
       </c>
+      <c r="O8">
+        <v>60</v>
+      </c>
       <c r="P8">
+        <f>$L$5*K8</f>
+        <v>180</v>
+      </c>
+      <c r="Q8">
+        <f>M$5*K8</f>
+        <v>300</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
         <v>420</v>
       </c>
     </row>
@@ -9392,16 +9568,19 @@
       <c r="N9">
         <v>640</v>
       </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
       <c r="P9">
+        <f>$L$5*K9</f>
+        <v>240</v>
+      </c>
+      <c r="Q9">
+        <f>M$5*K9</f>
+        <v>400</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
         <v>560</v>
       </c>
     </row>
@@ -9424,16 +9603,19 @@
       <c r="N10">
         <v>730</v>
       </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
       <c r="P10">
+        <f>$L$5*K10</f>
+        <v>300</v>
+      </c>
+      <c r="Q10">
+        <f>M$5*K10</f>
+        <v>500</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
         <v>700</v>
       </c>
     </row>
@@ -9456,16 +9638,19 @@
       <c r="N11">
         <v>1100</v>
       </c>
+      <c r="O11">
+        <v>200</v>
+      </c>
       <c r="P11">
+        <f>$L$5*K11</f>
+        <v>600</v>
+      </c>
+      <c r="Q11">
+        <f>M$5*K11</f>
+        <v>1000</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
     </row>
@@ -9488,16 +9673,19 @@
       <c r="N12">
         <v>1550</v>
       </c>
+      <c r="O12">
+        <v>400</v>
+      </c>
       <c r="P12">
+        <f>$L$5*K12</f>
+        <v>1200</v>
+      </c>
+      <c r="Q12">
+        <f>M$5*K12</f>
+        <v>2000</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
@@ -9520,16 +9708,19 @@
       <c r="N13">
         <v>2100</v>
       </c>
+      <c r="O13">
+        <v>600</v>
+      </c>
       <c r="P13">
+        <f>$L$5*K13</f>
+        <v>1800</v>
+      </c>
+      <c r="Q13">
+        <f>M$5*K13</f>
+        <v>3000</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
@@ -9552,16 +9743,19 @@
       <c r="N14">
         <v>2550</v>
       </c>
+      <c r="O14">
+        <v>800</v>
+      </c>
       <c r="P14">
+        <f>$L$5*K14</f>
+        <v>2400</v>
+      </c>
+      <c r="Q14">
+        <f>M$5*K14</f>
+        <v>4000</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
         <v>5600</v>
       </c>
     </row>
@@ -9584,16 +9778,19 @@
       <c r="N15">
         <v>3100</v>
       </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
       <c r="P15">
+        <f>$L$5*K15</f>
+        <v>3000</v>
+      </c>
+      <c r="Q15">
+        <f>M$5*K15</f>
+        <v>5000</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
     </row>
@@ -9616,16 +9813,19 @@
       <c r="N16">
         <v>4650</v>
       </c>
+      <c r="O16">
+        <v>2000</v>
+      </c>
       <c r="P16">
+        <f>$L$5*K16</f>
+        <v>6000</v>
+      </c>
+      <c r="Q16">
+        <f>M$5*K16</f>
+        <v>10000</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
     </row>
@@ -9648,16 +9848,19 @@
       <c r="N17">
         <v>5150</v>
       </c>
+      <c r="O17">
+        <v>2700</v>
+      </c>
       <c r="P17">
+        <f>$L$5*K17</f>
+        <v>8100</v>
+      </c>
+      <c r="Q17">
+        <f>M$5*K17</f>
+        <v>13500</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="0"/>
-        <v>8100</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>13500</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -9806,8 +10009,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9817,34 +10021,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD2ED8-406B-40DF-8DEE-CD62523502CD}">
-  <dimension ref="B3:N18"/>
+  <dimension ref="B3:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:24">
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:24">
       <c r="B4" s="8">
         <v>0.1</v>
       </c>
@@ -9858,7 +10069,7 @@
         <v>505</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -9869,8 +10080,20 @@
       <c r="N4">
         <v>7</v>
       </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:24">
       <c r="B5" s="7">
         <v>0.35</v>
       </c>
@@ -9895,8 +10118,20 @@
       <c r="N5">
         <v>430</v>
       </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:24">
       <c r="B6" s="8">
         <v>0.4</v>
       </c>
@@ -9921,8 +10156,17 @@
       <c r="N6">
         <v>500</v>
       </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:24">
       <c r="B7" s="7">
         <v>0.49</v>
       </c>
@@ -9947,8 +10191,17 @@
       <c r="N7">
         <v>580</v>
       </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:24">
       <c r="B8" s="8">
         <v>0.6</v>
       </c>
@@ -9973,8 +10226,11 @@
       <c r="N8">
         <v>640</v>
       </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:24">
       <c r="B9" s="7">
         <v>0.72</v>
       </c>
@@ -10000,7 +10256,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:24">
       <c r="B10" s="8">
         <v>0.8</v>
       </c>
@@ -10026,7 +10282,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:24">
       <c r="B11" s="7">
         <v>0.91</v>
       </c>
@@ -10052,7 +10308,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:24">
       <c r="B12" s="8">
         <v>1.02</v>
       </c>
@@ -10078,7 +10334,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:24" ht="84">
       <c r="B13" s="7">
         <v>1.1200000000000001</v>
       </c>
@@ -10103,8 +10359,23 @@
       <c r="N13">
         <v>2550</v>
       </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="11">
+        <v>56313</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:24">
       <c r="B14" s="8">
         <v>1.2</v>
       </c>
@@ -10129,8 +10400,17 @@
       <c r="N14">
         <v>3100</v>
       </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="11">
+        <v>2011</v>
+      </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:24">
       <c r="B15" s="8">
         <v>1.3</v>
       </c>
@@ -10155,8 +10435,17 @@
       <c r="N15">
         <v>4650</v>
       </c>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="11">
+        <v>2011</v>
+      </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:24">
       <c r="B16" s="8">
         <v>1.5</v>
       </c>
@@ -10180,6 +10469,18 @@
       </c>
       <c r="N16">
         <v>5150</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:5">
